--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carbon-calculator\carbon-calculator\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CAA571-7208-48EC-B489-D74F6141D5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EFEA74-9824-4043-A266-16710646EF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11466" firstSheet="1" activeTab="1" xr2:uid="{6EC1FDFD-8CA5-4062-AFD1-B9F4C90CA3E6}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11466" firstSheet="1" activeTab="5" xr2:uid="{6EC1FDFD-8CA5-4062-AFD1-B9F4C90CA3E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Fossil Fuel" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Waste" sheetId="5" r:id="rId5"/>
     <sheet name="Travel" sheetId="7" r:id="rId6"/>
     <sheet name="Offset" sheetId="9" r:id="rId7"/>
-    <sheet name="Dropdowns" sheetId="10" r:id="rId8"/>
+    <sheet name="Dropdowns" sheetId="10" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="CNG">Dropdowns!$I$2:$I$4</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="122">
   <si>
     <t>Compulsory</t>
   </si>
@@ -163,9 +163,6 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Halls of Residence</t>
-  </si>
-  <si>
     <t>January</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
     <t>kg</t>
   </si>
   <si>
-    <t>Housing Areas</t>
-  </si>
-  <si>
     <t>Self-Produced</t>
   </si>
   <si>
@@ -383,6 +377,54 @@
   </si>
   <si>
     <t>Number of Units</t>
+  </si>
+  <si>
+    <t>Airways</t>
+  </si>
+  <si>
+    <t>Railways</t>
+  </si>
+  <si>
+    <t>Select the type of Rail</t>
+  </si>
+  <si>
+    <t>Rail Type</t>
+  </si>
+  <si>
+    <t>National Railways</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Residential Areas</t>
+  </si>
+  <si>
+    <t>Hostels</t>
+  </si>
+  <si>
+    <t>Health Centre</t>
+  </si>
+  <si>
+    <t>Schools</t>
+  </si>
+  <si>
+    <t>Visitor's Hostel</t>
+  </si>
+  <si>
+    <t>Servant's Quarters</t>
+  </si>
+  <si>
+    <t>Lawns and Horticulture</t>
+  </si>
+  <si>
+    <t>Dhobhighat</t>
+  </si>
+  <si>
+    <t>Shops/Bank/PO</t>
+  </si>
+  <si>
+    <t>November</t>
   </si>
 </sst>
 </file>
@@ -682,7 +724,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -715,6 +764,76 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1031,7 +1150,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1091,7 +1210,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1120,7 +1239,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
@@ -1143,7 +1262,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.5">
@@ -1160,10 +1279,10 @@
         <v>18</v>
       </c>
       <c r="E8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>36</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="G8" s="17">
         <v>1000</v>
@@ -1174,19 +1293,19 @@
         <v>2</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="C9" s="12">
         <v>2022</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="18">
         <v>1000</v>
@@ -1197,19 +1316,19 @@
         <v>3</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="C10" s="12">
         <v>2023</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="18">
         <v>1000</v>
@@ -1220,7 +1339,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" s="12">
         <v>2023</v>
@@ -1229,10 +1348,10 @@
         <v>18</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="18">
         <v>1000</v>
@@ -1483,7 +1602,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F8:F38">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>#REF!="Mobile Combustion"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1492,9 +1611,6 @@
       <formula1>2000</formula1>
       <formula2>2030</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B38" xr:uid="{8BB36FA0-D59D-4485-B204-8791B7A3D5F1}">
-      <formula1>"Halls of Residence, Academic Area, Housing Areas, Others"</formula1>
-    </dataValidation>
     <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid month._x000a_" sqref="D8:D38" xr:uid="{5946F93D-7A19-41B0-84B9-83EF94595469}">
       <formula1>"January,February,March,April,May,June,July,August,September,October,November,December"</formula1>
     </dataValidation>
@@ -1509,6 +1625,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Entered data doesn't match with the dropdown data." sqref="F8:F1048576" xr:uid="{75BCACC5-58F1-4E6B-8DB0-4B18EBCE8D61}">
       <formula1>INDIRECT(SUBSTITUTE(E8, "/", "_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B1048576" xr:uid="{5E62ED86-2CEB-4C76-9B73-D8A383DFA6DB}">
+      <formula1>"Residential Areas,Hostels,Academic Area,Health Centre,Schools,Visitor's Hostel,Servant's Quarters,Shops, Bank and PO,Lawns and Horticulture,Dhobhighat,Others"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1519,8 +1638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB0691D-AC14-4570-8925-FB8FC705A77A}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1575,7 +1694,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="2"/>
@@ -1596,10 +1715,10 @@
         <v>7</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.5">
@@ -1616,10 +1735,10 @@
         <v>13</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.5">
@@ -1627,16 +1746,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="C8" s="12">
         <v>2022</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F8" s="29">
         <v>100</v>
@@ -1897,11 +2016,11 @@
       <formula1>2000</formula1>
       <formula2>2030</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B38" xr:uid="{34231235-2DDC-4F2F-B6B4-7A7BB0141ECC}">
-      <formula1>"Academic Area, Halls of Residence, Housing Areas, Others"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E1048576" xr:uid="{4AB81EA9-2B33-4D8E-BB81-97AFB5AAEF33}">
       <formula1>"Domestic Refrigeration, Commercial Refrigeration, Industrial Refrigeration,Residential and Commercial A/Cs "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B1048576" xr:uid="{DAB9448B-4A45-43A3-AB99-2D85AD0BA65F}">
+      <formula1>"Residential Areas,Hostels,Academic Area,Health Centre,Schools,Visitor's Hostel,Servant's Quarters,Shops/Bank/PO,Lawns and Horticulture,Dhobhighat,Others"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1913,7 +2032,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B7" sqref="B7:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1967,7 +2086,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="2"/>
@@ -2033,22 +2152,22 @@
         <v>1</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="C7" s="12">
         <v>2022</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H7" s="15">
         <v>1000</v>
@@ -2059,22 +2178,22 @@
         <v>2</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C8" s="12">
         <v>2023</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H8" s="15">
         <v>900</v>
@@ -2387,15 +2506,15 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G37" xr:uid="{FE58FF62-EEEF-435B-907E-3EDD71CE9653}">
       <formula1>"kWH"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B37" xr:uid="{8D8A6EC9-27B1-4DD6-AEAD-80ED86862807}">
-      <formula1>"Academic Area, Halls of Residence, Housing Areas, Others"</formula1>
-    </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid year between 2000 and 2030" sqref="C7:C37" xr:uid="{C30D3FD5-62C1-463E-9ED1-6DE284634F7B}">
       <formula1>2000</formula1>
       <formula2>2030</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E1048576" xr:uid="{A6FF9E8A-F32E-472C-A17B-C2884C6DF5BE}">
       <formula1>"Coal/Thermal,Solar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B1048576" xr:uid="{037CEF17-B2DE-44DB-8612-847F740F0867}">
+      <formula1>"Residential Areas,Hostels,Academic Area,Health Centre,Schools,Visitor's Hostel,Servant's Quarters,Shops/Bank/PO,Lawns and Horticulture,Dhobhighat,Others"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2406,8 +2525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725DEBD1-D29B-4A2C-8BC4-0BC578E396ED}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="F6" zoomScale="80" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2472,7 +2591,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="2"/>
@@ -2538,22 +2657,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="C8" s="12">
         <v>2022</v>
       </c>
       <c r="D8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>41</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="26">
         <v>10</v>
@@ -2564,22 +2683,22 @@
         <v>2</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="C9" s="12">
         <v>2022</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H9" s="18">
         <v>20</v>
@@ -2590,22 +2709,22 @@
         <v>3</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="C10" s="12">
         <v>2023</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H10" s="18">
         <v>10</v>
@@ -2616,22 +2735,22 @@
         <v>4</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="C11" s="12">
         <v>2023</v>
       </c>
       <c r="D11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="15" t="s">
         <v>41</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>43</v>
       </c>
       <c r="H11" s="18">
         <v>20</v>
@@ -2918,9 +3037,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E38" xr:uid="{442804D8-B7C0-4949-A703-7038B508AD4B}">
       <formula1>"Supplied Water, Treated Water"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B38" xr:uid="{305E9B87-5DEE-4C94-8294-9F1359D084EA}">
-      <formula1>"Academic Area, Halls of Residence, Housing Areas, Others"</formula1>
-    </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid year between 2000 and 2030" sqref="C8:C38" xr:uid="{E169CEF1-BB29-4723-AF5F-4C99C0DAAF37}">
       <formula1>2000</formula1>
       <formula2>2030</formula2>
@@ -2930,6 +3046,9 @@
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A38" xr:uid="{1C1641AF-B010-4A7C-9F00-6A917C5E655C}">
       <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B1048576" xr:uid="{23A13DAB-0390-4DFF-A73D-37F9FD445C87}">
+      <formula1>"Residential Areas,Hostels,Academic Area,Health Centre,Schools,Visitor's Hostel,Servant's Quarters,Shops/Bank/PO,Lawns and Horticulture,Dhobhighat,Others"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2940,8 +3059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEC9BD0-FCE7-409B-84BC-BAB9D159D2CA}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="96" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -3006,7 +3125,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="2"/>
@@ -3029,10 +3148,10 @@
         <v>7</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>30</v>
@@ -3055,10 +3174,10 @@
         <v>13</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G7" s="24" t="s">
         <v>16</v>
@@ -3072,22 +3191,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="C8" s="12">
         <v>2022</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H8" s="26">
         <v>100</v>
@@ -3098,22 +3217,22 @@
         <v>2</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="C9" s="12">
         <v>2023</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H9" s="18">
         <v>90</v>
@@ -3421,9 +3540,6 @@
       <formula1>2000</formula1>
       <formula2>2030</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B38" xr:uid="{E3FE0031-B6D4-4E3B-970D-8A8F502DC818}">
-      <formula1>"Academic Area, Halls of Residence, Housing Areas, Others"</formula1>
-    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Entered value should be a positive number." sqref="H8:H38" xr:uid="{7A03D7B2-1D5C-4D29-AD19-AD8FC0E50F86}">
       <formula1>ISNUMBER(H8)</formula1>
     </dataValidation>
@@ -3435,6 +3551,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G1048576" xr:uid="{54C9F350-0E44-4BCB-87C6-288CE1E21F96}">
       <formula1>"kg,tonne"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B1048576" xr:uid="{8A09CFD9-1F2D-4E53-8BE5-A9C3A718528D}">
+      <formula1>"Residential Areas,Hostels,Academic Area,Health Centre,Schools,Visitor's Hostel,Servant's Quarters,Shops/Bank/PO,Lawns and Horticulture,Dhobhighat,Others"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3443,10 +3562,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049739DF-B581-49D3-8000-F5CBD78AC6C8}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView zoomScale="96" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="F7" sqref="F6:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -3454,13 +3573,13 @@
     <col min="2" max="2" width="20.46875" customWidth="1"/>
     <col min="3" max="3" width="17.3515625" customWidth="1"/>
     <col min="4" max="4" width="26.29296875" customWidth="1"/>
-    <col min="5" max="6" width="30.8203125" customWidth="1"/>
-    <col min="7" max="7" width="25.76171875" customWidth="1"/>
-    <col min="8" max="8" width="24.3515625" customWidth="1"/>
-    <col min="9" max="10" width="44.46875" customWidth="1"/>
+    <col min="5" max="7" width="30.8203125" customWidth="1"/>
+    <col min="8" max="8" width="25.76171875" customWidth="1"/>
+    <col min="9" max="9" width="24.3515625" customWidth="1"/>
+    <col min="10" max="11" width="44.46875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3473,8 +3592,9 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -3487,8 +3607,9 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -3501,8 +3622,9 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -3515,11 +3637,12 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="2"/>
@@ -3529,8 +3652,9 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="43" x14ac:dyDescent="0.5">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="43" x14ac:dyDescent="0.5">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -3544,25 +3668,28 @@
         <v>7</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="I6" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+        <v>75</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -3576,462 +3703,513 @@
         <v>13</v>
       </c>
       <c r="E7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="24" t="s">
+      <c r="I7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="J7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K7" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A8" s="12">
         <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" s="12">
         <v>2022</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="26">
+      <c r="K8" s="26">
         <v>4210</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A9" s="12">
         <v>2</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="C9" s="12">
         <v>2023</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E9" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" s="18">
+      <c r="J9" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="18">
         <v>4000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="18"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A10" s="12">
+        <v>3</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="12">
+        <v>2023</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="15"/>
       <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K10" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
       <c r="D11" s="14"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="18"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="15"/>
       <c r="J11" s="18"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
       <c r="D12" s="14"/>
       <c r="E12" s="15"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="26"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="20"/>
       <c r="J12" s="26"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K12" s="26"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="12"/>
       <c r="D13" s="14"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="18"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="15"/>
       <c r="J13" s="18"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K13" s="18"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="12"/>
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="18"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="15"/>
       <c r="J14" s="18"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K14" s="18"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="12"/>
       <c r="D15" s="14"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="18"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="15"/>
       <c r="J15" s="18"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="12"/>
       <c r="D16" s="14"/>
       <c r="E16" s="15"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="26"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="20"/>
       <c r="J16" s="26"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K16" s="26"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="12"/>
       <c r="D17" s="14"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="18"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="15"/>
       <c r="J17" s="18"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="12"/>
       <c r="D18" s="14"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="18"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="15"/>
       <c r="J18" s="18"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="12"/>
       <c r="D19" s="14"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="18"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="15"/>
       <c r="J19" s="18"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="12"/>
       <c r="D20" s="14"/>
       <c r="E20" s="15"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="26"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="20"/>
       <c r="J20" s="26"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K20" s="26"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="12"/>
       <c r="D21" s="14"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="18"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="15"/>
       <c r="J21" s="18"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="12"/>
       <c r="D22" s="14"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="18"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="15"/>
       <c r="J22" s="18"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K22" s="18"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="12"/>
       <c r="D23" s="14"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="18"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="15"/>
       <c r="J23" s="18"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K23" s="18"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="12"/>
       <c r="D24" s="14"/>
       <c r="E24" s="15"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="18"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="20"/>
       <c r="J24" s="18"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K24" s="18"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="12"/>
       <c r="D25" s="14"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="18"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="15"/>
       <c r="J25" s="18"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K25" s="18"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="12"/>
       <c r="D26" s="14"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="18"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="15"/>
       <c r="J26" s="18"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K26" s="18"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="12"/>
       <c r="D27" s="28"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="18"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="15"/>
       <c r="J27" s="18"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K27" s="18"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="12"/>
       <c r="D28" s="14"/>
       <c r="E28" s="15"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="18"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="20"/>
       <c r="J28" s="18"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K28" s="18"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="12"/>
       <c r="D29" s="14"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="18"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="15"/>
       <c r="J29" s="18"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K29" s="18"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="12"/>
       <c r="D30" s="14"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="18"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="15"/>
       <c r="J30" s="18"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K30" s="18"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="12"/>
       <c r="D31" s="28"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="18"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="15"/>
       <c r="J31" s="18"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K31" s="18"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="12"/>
       <c r="D32" s="14"/>
       <c r="E32" s="15"/>
       <c r="F32" s="12"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="18"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="20"/>
       <c r="J32" s="18"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K32" s="18"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="12"/>
       <c r="D33" s="14"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="18"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="15"/>
       <c r="J33" s="18"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K33" s="18"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="12"/>
       <c r="D34" s="14"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="18"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="15"/>
       <c r="J34" s="18"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K34" s="18"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="12"/>
       <c r="D35" s="14"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="18"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="15"/>
       <c r="J35" s="18"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K35" s="18"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="12"/>
       <c r="D36" s="14"/>
       <c r="E36" s="15"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="18"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="20"/>
       <c r="J36" s="18"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K36" s="18"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="12"/>
       <c r="D37" s="14"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="18"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="15"/>
       <c r="J37" s="18"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K37" s="18"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="12"/>
       <c r="D38" s="14"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="18"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="15"/>
       <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F8:F1048576">
-    <cfRule type="expression" dxfId="3" priority="1">
+  <conditionalFormatting sqref="G8:G1048576">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>OR(E8="Roadways",E8="Railways")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G1048576">
+  <conditionalFormatting sqref="H8:H1048576">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>OR(E8="Airways", E8="Railways")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:I1048576">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>OR(E8="Airways", E8="Railways")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H1048576">
+  <conditionalFormatting sqref="J8:J1048576">
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>OR(E8="Airways", E8="Railways")</formula>
+      <formula>OR(E8="Airways",E8="Railways",H8="Public")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I1048576">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>G8="Public"</formula>
+  <conditionalFormatting sqref="F8:F1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>(OR(E8="Airways",E8="Roadways"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H1048576" xr:uid="{D40874DF-6DA1-49F6-9A8A-53B4AC8095BA}">
-      <formula1>INDIRECT((G8))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Entered value should be a positive number." sqref="J8:J38" xr:uid="{3E904A39-C901-438C-B6CC-F8D2DC192C23}">
-      <formula1>ISNUMBER(J8)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B38" xr:uid="{F6F61360-260C-4F4F-9FDE-AE73B5B6B721}">
-      <formula1>"Academic Area, Halls of Residence, Housing Areas, Others"</formula1>
+  <dataValidations count="11">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Entered value should be a positive number." sqref="K8:K38" xr:uid="{3E904A39-C901-438C-B6CC-F8D2DC192C23}">
+      <formula1>ISNUMBER(K8)</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid year between 2000 and 2030" sqref="C8:C38" xr:uid="{EC0FA524-DC2C-4403-81E3-FADB3013C784}">
       <formula1>2000</formula1>
@@ -4046,14 +4224,23 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E1048576" xr:uid="{5954220B-2DBE-480C-A267-AE38D4B6A40F}">
       <formula1>"Airways,Roadways,Railways"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G1048576" xr:uid="{532CD05D-A1EC-4652-B7A0-38C50B5DBD2A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H1048576" xr:uid="{532CD05D-A1EC-4652-B7A0-38C50B5DBD2A}">
       <formula1>"Public,Personal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Entered value should be a positive number." sqref="I8:I1048576" xr:uid="{105FE0C0-EE06-4959-94D8-5467FBF519A8}">
-      <formula1>INDIRECT(SUBSTITUTE(H8," ","_"))</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F1048576" xr:uid="{4A307E96-247E-4E07-A052-03AAD8A1B85C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G1048576" xr:uid="{4A307E96-247E-4E07-A052-03AAD8A1B85C}">
       <formula1>"Domestic, Short Haul, Long Haul, International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F1048576" xr:uid="{D7DAD114-48F4-4804-860C-BEE563DEF2B2}">
+      <formula1>"National Railways,Metro"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B1048576" xr:uid="{5249FDF1-35E8-4FB0-B2D3-8D3E13F28A8A}">
+      <formula1>"Residential Areas,Hostels,Academic Area,Health Centre,Schools,Visitor's Hostel,Servant's Quarters,Shops/Bank/PO,Lawns and Horticulture,Dhobhighat,Others"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:I1048576" xr:uid="{D40874DF-6DA1-49F6-9A8A-53B4AC8095BA}">
+      <formula1>INDIRECT((H8))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Entered value should be a positive number." sqref="J8:J1048576" xr:uid="{105FE0C0-EE06-4959-94D8-5467FBF519A8}">
+      <formula1>INDIRECT(SUBSTITUTE(I8," ","_"))</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4065,7 +4252,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="10" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B8" sqref="B8:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -4130,7 +4317,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="2"/>
@@ -4153,16 +4340,16 @@
         <v>7</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.5">
@@ -4179,16 +4366,16 @@
         <v>13</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.5">
@@ -4196,13 +4383,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="C8" s="12">
         <v>2022</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E8" s="15">
         <v>200</v>
@@ -4522,9 +4709,6 @@
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Entered value should be a positive number." sqref="H8:H38" xr:uid="{0E64E2E5-800B-4515-AB34-DE73C8F3D38E}">
       <formula1>ISNUMBER(H8)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B38" xr:uid="{BB073E14-C93A-4146-9E3B-39F836D87CB7}">
-      <formula1>"Academic Area, Halls of Residence, Housing Areas, Others"</formula1>
-    </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid year between 2000 and 2030" sqref="C8:C38" xr:uid="{69073939-E312-4E1B-8A19-24884CFA8994}">
       <formula1>2000</formula1>
       <formula2>2030</formula2>
@@ -4537,6 +4721,9 @@
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:G1048576" xr:uid="{03C78334-62CF-4532-BDE3-0C8DDC979FF3}">
       <formula1>ISNUMBER(E8)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B1048576" xr:uid="{0767F017-2AC5-4ECB-B006-9B00DFCC3149}">
+      <formula1>"Residential Areas,Hostels,Academic Area,Health Centre,Schools,Visitor's Hostel,Servant's Quarters,Shops/Bank/PO,Lawns and Horticulture,Dhobhighat,Others"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4564,28 +4751,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I1" t="s">
         <v>19</v>
@@ -4593,175 +4780,175 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" t="s">
         <v>86</v>
       </c>
-      <c r="G4" t="s">
-        <v>88</v>
-      </c>
       <c r="H4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" t="s">
         <v>86</v>
-      </c>
-      <c r="I4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="C5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.5">

--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carbon-calculator\carbon-calculator\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF361B2-DCE7-4B4B-8CD6-0E05231DE031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2834C098-3A62-48DB-967E-DE8AE77CB0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11466" activeTab="3" xr2:uid="{6EC1FDFD-8CA5-4062-AFD1-B9F4C90CA3E6}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11466" activeTab="4" xr2:uid="{6EC1FDFD-8CA5-4062-AFD1-B9F4C90CA3E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Fossil Fuel" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,23 @@
     <sheet name="Electricity" sheetId="3" r:id="rId3"/>
     <sheet name="Water" sheetId="4" r:id="rId4"/>
     <sheet name="Waste" sheetId="5" r:id="rId5"/>
+    <sheet name="Travel" sheetId="7" r:id="rId6"/>
+    <sheet name="Offset" sheetId="9" r:id="rId7"/>
+    <sheet name="Dropdowns" sheetId="10" state="hidden" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="CNG">Dropdowns!$I$2:$I$4</definedName>
+    <definedName name="Commercial_and_Industrial_Waste">Dropdowns!$A$2:$A$4</definedName>
+    <definedName name="Diesel">Dropdowns!$H$2:$H$4</definedName>
+    <definedName name="Food_and_Drink_Waste">Dropdowns!$C$2:$C$5</definedName>
+    <definedName name="Garden_Waste">Dropdowns!$C$2:$C$5</definedName>
+    <definedName name="Household_Residue">Dropdowns!$A$2:$A$4</definedName>
+    <definedName name="LPG">Dropdowns!$F$2:$F$4</definedName>
+    <definedName name="Personal">Dropdowns!$B$7:$B$10</definedName>
+    <definedName name="Petrol_Gasoline">Dropdowns!$E$2:$E$4</definedName>
+    <definedName name="PNG">Dropdowns!$G$2:$G$4</definedName>
+    <definedName name="Public">Dropdowns!$A$7:$A$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="102">
   <si>
     <t>Compulsory</t>
   </si>
@@ -54,9 +70,6 @@
     <t>Or this</t>
   </si>
   <si>
-    <t>Don’t Fill</t>
-  </si>
-  <si>
     <t>Enter the serial number</t>
   </si>
   <si>
@@ -69,24 +82,12 @@
     <t>Select the month for this data instance</t>
   </si>
   <si>
-    <t>Select the combustion type (mass/ volume affetcs the units you will allowed to select in unit column)</t>
-  </si>
-  <si>
     <t>Select the fuel used from the dropdown</t>
   </si>
   <si>
-    <t>Purpose of fuel combustion</t>
-  </si>
-  <si>
-    <t>Select the vehicle type in case of mobile combustion</t>
-  </si>
-  <si>
     <t xml:space="preserve">Select the unit of the fuel used </t>
   </si>
   <si>
-    <t>Enter the amount of fuel used or distance travelled in KM</t>
-  </si>
-  <si>
     <t>Sr. No.</t>
   </si>
   <si>
@@ -99,39 +100,24 @@
     <t>Month</t>
   </si>
   <si>
-    <t>Combustion Type</t>
-  </si>
-  <si>
     <t>Fuel Type</t>
   </si>
   <si>
-    <t>Purpose</t>
-  </si>
-  <si>
     <t>Vehicle Type</t>
   </si>
   <si>
     <t>Unit</t>
   </si>
   <si>
-    <t>Amount/Distance Travelled in KM</t>
-  </si>
-  <si>
     <t>Academic Area</t>
   </si>
   <si>
     <t>February</t>
   </si>
   <si>
-    <t>Mobile Combustion</t>
-  </si>
-  <si>
     <t>CNG</t>
   </si>
   <si>
-    <t>Passenger Car</t>
-  </si>
-  <si>
     <t>Enter the month for this data instance</t>
   </si>
   <si>
@@ -156,9 +142,6 @@
     <t>Amount/Quantity</t>
   </si>
   <si>
-    <t>Not Required</t>
-  </si>
-  <si>
     <t>Select whether the water is supplied or treated</t>
   </si>
   <si>
@@ -183,9 +166,6 @@
     <t>January</t>
   </si>
   <si>
-    <t>Stationary Combustion</t>
-  </si>
-  <si>
     <t>Petrol/Gasoline</t>
   </si>
   <si>
@@ -226,6 +206,162 @@
   </si>
   <si>
     <t>Agra</t>
+  </si>
+  <si>
+    <t>Select the Waste Type</t>
+  </si>
+  <si>
+    <t>Select the Waste Treatment Type</t>
+  </si>
+  <si>
+    <t>Waste Type</t>
+  </si>
+  <si>
+    <t>Waste Treatment Type</t>
+  </si>
+  <si>
+    <t>Composting</t>
+  </si>
+  <si>
+    <t>Landfills</t>
+  </si>
+  <si>
+    <t>Household Residue</t>
+  </si>
+  <si>
+    <t>Commercial and Industrial Waste</t>
+  </si>
+  <si>
+    <t>Combustion</t>
+  </si>
+  <si>
+    <t>Recycling</t>
+  </si>
+  <si>
+    <t>Food and Drink Waste</t>
+  </si>
+  <si>
+    <t>Garden Waste</t>
+  </si>
+  <si>
+    <t>Don’t Fill This</t>
+  </si>
+  <si>
+    <t>Don't Fill This</t>
+  </si>
+  <si>
+    <t>Enter the Number of Trees in the Facility</t>
+  </si>
+  <si>
+    <t>Enter the Area Covered by Soil(Sq. KM)</t>
+  </si>
+  <si>
+    <t>Enter The Area Under Grass(Sq. KM)</t>
+  </si>
+  <si>
+    <t>Enter the Area Under Water Bodies(Sq. KM)</t>
+  </si>
+  <si>
+    <t>Area Under Grass</t>
+  </si>
+  <si>
+    <t>Area Under Water Bodies</t>
+  </si>
+  <si>
+    <t>Area Under Soil</t>
+  </si>
+  <si>
+    <t>Number of Trees</t>
+  </si>
+  <si>
+    <t>Select the Mode of Transport</t>
+  </si>
+  <si>
+    <t>Mode of Transport</t>
+  </si>
+  <si>
+    <t>Select The Vehicle Ownership</t>
+  </si>
+  <si>
+    <t>Vehicle Ownership</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>Select The Vehicle Type</t>
+  </si>
+  <si>
+    <t>Select The Fuel Type</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>Medium Sized Car</t>
+  </si>
+  <si>
+    <t>Enter the Distance Travelled in KM</t>
+  </si>
+  <si>
+    <t>Distance Travelled (KM)</t>
+  </si>
+  <si>
+    <t>Roadways</t>
+  </si>
+  <si>
+    <t>Motorcycle</t>
+  </si>
+  <si>
+    <t>Small Sized Car</t>
+  </si>
+  <si>
+    <t>LPG</t>
+  </si>
+  <si>
+    <t>litre</t>
+  </si>
+  <si>
+    <t>tonne</t>
+  </si>
+  <si>
+    <t>cubic metre</t>
+  </si>
+  <si>
+    <t>PNG</t>
+  </si>
+  <si>
+    <t>Enter the amount of fuel used</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Select the Length of Flight</t>
+  </si>
+  <si>
+    <t>Length of Flight</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>Taxi</t>
+  </si>
+  <si>
+    <t>Large Sized Car</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
   </si>
 </sst>
 </file>
@@ -434,7 +570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -467,9 +603,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
@@ -517,25 +650,43 @@
     <xf numFmtId="14" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -856,26 +1007,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C07476-A2EF-4FE4-A678-01004A44B02C}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
+    <col min="1" max="1" width="19.703125" customWidth="1"/>
     <col min="2" max="2" width="17.41015625" customWidth="1"/>
     <col min="3" max="3" width="13.87890625" customWidth="1"/>
     <col min="4" max="4" width="15.9375" customWidth="1"/>
-    <col min="5" max="5" width="18.8203125" customWidth="1"/>
-    <col min="6" max="6" width="17.76171875" customWidth="1"/>
-    <col min="7" max="7" width="21.64453125" customWidth="1"/>
-    <col min="8" max="8" width="16.8203125" customWidth="1"/>
-    <col min="9" max="9" width="23.05859375" customWidth="1"/>
-    <col min="10" max="10" width="32.1171875" customWidth="1"/>
+    <col min="5" max="5" width="17.76171875" customWidth="1"/>
+    <col min="6" max="6" width="23.05859375" customWidth="1"/>
+    <col min="7" max="7" width="32.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -885,11 +1034,8 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -899,11 +1045,8 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -913,11 +1056,8 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -927,313 +1067,237 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5" s="6" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" ht="71.7" x14ac:dyDescent="0.5">
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="43" x14ac:dyDescent="0.5">
       <c r="A6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="D7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="E7" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="F7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="G7" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8" s="12">
         <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C8" s="12">
         <v>2022</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18">
+        <v>37</v>
+      </c>
+      <c r="G8" s="17">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9" s="12">
         <v>2</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C9" s="12">
         <v>2022</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="19">
+        <v>37</v>
+      </c>
+      <c r="G9" s="18">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
       <c r="D10" s="14"/>
       <c r="E10" s="15"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="19"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
       <c r="D11" s="14"/>
       <c r="E11" s="15"/>
       <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="19"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
       <c r="D12" s="14"/>
       <c r="E12" s="15"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="19"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="12"/>
       <c r="D13" s="14"/>
       <c r="E13" s="15"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="19"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="12"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="16"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="19"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="12"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="16"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="16"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="19"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="12"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="16"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="18"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="12"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="16"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="16"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="19"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="12"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="16"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="16"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="19"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="12"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="16"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="16"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="19"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="12"/>
       <c r="D20" s="14"/>
       <c r="E20" s="15"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="19"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="12"/>
       <c r="D21" s="14"/>
       <c r="E21" s="15"/>
       <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="19"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="12"/>
       <c r="D22" s="14"/>
       <c r="E22" s="15"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="19"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="12"/>
       <c r="D23" s="14"/>
       <c r="E23" s="15"/>
       <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="19"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="12"/>
@@ -1241,95 +1305,71 @@
       <c r="E24" s="15"/>
       <c r="F24" s="16"/>
       <c r="G24" s="17"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="18"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.5">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="12"/>
       <c r="D25" s="14"/>
       <c r="E25" s="15"/>
       <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="19"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="12"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="16"/>
+      <c r="E26" s="15"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="19"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="12"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="16"/>
+      <c r="E27" s="15"/>
       <c r="F27" s="16"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="19"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="G27" s="18"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="12"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="16"/>
+      <c r="E28" s="15"/>
       <c r="F28" s="16"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="19"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="G28" s="18"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="12"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="16"/>
+      <c r="E29" s="15"/>
       <c r="F29" s="16"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="19"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="12"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="16"/>
+      <c r="E30" s="15"/>
       <c r="F30" s="16"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="19"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="G30" s="18"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="12"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="16"/>
+      <c r="E31" s="15"/>
       <c r="F31" s="16"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="19"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="12"/>
@@ -1337,97 +1377,68 @@
       <c r="E32" s="15"/>
       <c r="F32" s="16"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="18"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.5">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="12"/>
       <c r="D33" s="14"/>
       <c r="E33" s="15"/>
       <c r="F33" s="16"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="19"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="G33" s="18"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="12"/>
       <c r="D34" s="14"/>
       <c r="E34" s="15"/>
       <c r="F34" s="16"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="19"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="12"/>
       <c r="D35" s="14"/>
       <c r="E35" s="15"/>
       <c r="F35" s="16"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="19"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="G35" s="18"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="12"/>
       <c r="D36" s="14"/>
       <c r="E36" s="15"/>
       <c r="F36" s="16"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="19"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="G36" s="18"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="12"/>
       <c r="D37" s="14"/>
       <c r="E37" s="15"/>
       <c r="F37" s="16"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="19"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="G37" s="18"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="12"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="16"/>
+      <c r="E38" s="15"/>
       <c r="F38" s="16"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="19"/>
+      <c r="G38" s="18"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H8:H38">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$E8="Stationary Combustion"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>OR($E8="Stationary_Combustion_Mass",$E8="Stationary_Combustion_Volume")</formula>
+  <conditionalFormatting sqref="F8:F38">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>#REF!="Mobile Combustion"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I38">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$E8="Mobile Combustion"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="9">
+  <dataValidations count="7">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter an year between 2000 and 2030" sqref="C8:C38" xr:uid="{9FA2C19A-5283-4B41-A7D8-30CF25E05C80}">
       <formula1>2000</formula1>
       <formula2>2030</formula2>
@@ -1438,23 +1449,17 @@
     <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid month._x000a_" sqref="D8:D38" xr:uid="{5946F93D-7A19-41B0-84B9-83EF94595469}">
       <formula1>"January,February,March,April,May,June,July,August,September,October,November,December"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Entered data doesn't match with the dropdown data." sqref="I8:I38" xr:uid="{AB377693-AA5E-4A6E-A3C6-BDC7AA75EE64}">
-      <formula1>"kg,tonne,litre,cubic metre"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Entered data doesn't match with the dropdown data." sqref="H8:H38" xr:uid="{F3FEB561-66D5-435A-AE2A-5BCAA1A0FFCF}">
-      <formula1>"Passenger Car, Light Duty Trucks, Heavy Duty Trucks"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F38" xr:uid="{CD0BC024-3A6A-4F8E-80B4-9CC1F7B8EC97}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E38" xr:uid="{CD0BC024-3A6A-4F8E-80B4-9CC1F7B8EC97}">
       <formula1>"CNG,Petrol/Gasoline,Diesel,LPG,PNG"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E38" xr:uid="{E9797F02-0CF0-4228-82E5-9183D2E42748}">
-      <formula1>"Mobile Combustion, Stationary Combustion"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Entered value should be a number." sqref="J8:J38" xr:uid="{7BC6F158-8AA2-49AE-A5F7-9EEB47939DE7}">
-      <formula1>ISNUMBER(J8)</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Entered value should be a number." sqref="G8:G38" xr:uid="{7BC6F158-8AA2-49AE-A5F7-9EEB47939DE7}">
+      <formula1>ISNUMBER(G8)</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A38" xr:uid="{0131DFCE-8C71-40DD-9129-137AFBDC4E88}">
       <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Entered data doesn't match with the dropdown data." sqref="F8:F1048576" xr:uid="{75BCACC5-58F1-4E6B-8DB0-4B18EBCE8D61}">
+      <formula1>INDIRECT(SUBSTITUTE(E8, "/", "_"))</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1478,7 +1483,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1494,7 +1499,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A1" s="16"/>
+      <c r="A1" s="15"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1532,7 +1537,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="2"/>
@@ -1543,54 +1548,54 @@
     </row>
     <row r="5" spans="1:8" ht="43" x14ac:dyDescent="0.5">
       <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>23</v>
-      </c>
       <c r="H6" s="9" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.5">
@@ -1598,24 +1603,24 @@
         <v>1</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C7" s="12">
         <v>2022</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="16">
+        <v>47</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="15">
         <v>1000</v>
       </c>
     </row>
@@ -1624,300 +1629,300 @@
       <c r="B8" s="13"/>
       <c r="C8" s="12"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="16"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
       <c r="D9" s="14"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="16"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
       <c r="D10" s="14"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="16"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="16"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="16"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="12"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="16"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="12"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="12"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="12"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="12"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="12"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="16"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="12"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="16"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="12"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="16"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="12"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="16"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="12"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="16"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="12"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="16"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="12"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="16"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="12"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="16"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="12"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="16"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="15"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="12"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="16"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="12"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="16"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="12"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="16"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="12"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="16"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="15"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="12"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="16"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="12"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="16"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="15"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="12"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="16"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="12"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="16"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="15"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="12"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="16"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="15"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="12"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="16"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="15"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="12"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="16"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="15"/>
     </row>
   </sheetData>
   <dataValidations count="8">
@@ -1955,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725DEBD1-D29B-4A2C-8BC4-0BC578E396ED}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1976,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="23"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2021,7 +2026,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="2"/>
@@ -2032,54 +2037,54 @@
     </row>
     <row r="6" spans="1:8" ht="71.7" x14ac:dyDescent="0.5">
       <c r="A6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>8</v>
-      </c>
       <c r="E6" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A7" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>23</v>
-      </c>
       <c r="H7" s="10" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.5">
@@ -2087,24 +2092,24 @@
         <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C8" s="12">
         <v>2022</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="27">
+        <v>41</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="26">
         <v>10</v>
       </c>
     </row>
@@ -2113,24 +2118,24 @@
         <v>2</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C9" s="12">
         <v>2022</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="19">
+        <v>99</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="18">
         <v>20</v>
       </c>
     </row>
@@ -2139,290 +2144,290 @@
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
       <c r="D10" s="14"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="19"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="19"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="27"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="12"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="19"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="12"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="19"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="12"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="19"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="12"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="27"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="12"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="19"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="12"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="19"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="12"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="19"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="12"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="27"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="12"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="19"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="12"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="19"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="12"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="19"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="12"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="19"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="12"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="19"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="12"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="19"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="18"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="19"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="12"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="19"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="12"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="19"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="18"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="12"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="19"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="18"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="19"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="12"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="19"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="18"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="12"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="19"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="18"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="12"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="19"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="18"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="12"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="19"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="18"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="12"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="19"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="18"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="12"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="19"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="18"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="12"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="19"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="18"/>
     </row>
   </sheetData>
   <dataValidations count="7">
@@ -2455,12 +2460,1755 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEC9BD0-FCE7-409B-84BC-BAB9D159D2CA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="96" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="20.46875" customWidth="1"/>
+    <col min="3" max="3" width="17.3515625" customWidth="1"/>
+    <col min="4" max="4" width="26.29296875" customWidth="1"/>
+    <col min="5" max="5" width="37.1171875" customWidth="1"/>
+    <col min="6" max="6" width="25.76171875" customWidth="1"/>
+    <col min="7" max="7" width="24.3515625" customWidth="1"/>
+    <col min="8" max="8" width="27.3515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="43" x14ac:dyDescent="0.5">
+      <c r="A6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A8" s="12">
+        <v>1</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2022</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="26"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="26"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="26"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="18"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="18"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="18"/>
+    </row>
+  </sheetData>
+  <dataValidations count="8">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A38" xr:uid="{2EE6A72F-0A50-43BC-A676-AE6929AE9AEC}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid date." sqref="D8:D38" xr:uid="{B2E356FF-EF13-4819-8AD6-36205F00795B}">
+      <formula1>"January, February, March,April, May, June, July, August, September, October, November, December"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid year between 2000 and 2030" sqref="C8:C38" xr:uid="{6047C4A3-022D-45F3-9024-107B45070419}">
+      <formula1>2000</formula1>
+      <formula2>2030</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B38" xr:uid="{E3FE0031-B6D4-4E3B-970D-8A8F502DC818}">
+      <formula1>"Academic Area, Halls of Residence, Housing Areas, Others"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Entered value should be a positive number." sqref="H8:H38" xr:uid="{7A03D7B2-1D5C-4D29-AD19-AD8FC0E50F86}">
+      <formula1>ISNUMBER(H8)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E1048576" xr:uid="{0BD5FEBD-B97A-4F64-BB0D-5DEBDF7E0DCF}">
+      <formula1>"Household Residue, Food and Drink Waste, Garden Waste, Commercial and Industrial Waste"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F1048576" xr:uid="{653E2436-8A8B-4EF0-A26A-A02699ACCF9F}">
+      <formula1>INDIRECT(SUBSTITUTE(E8, " ", "_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G1048576" xr:uid="{54C9F350-0E44-4BCB-87C6-288CE1E21F96}">
+      <formula1>"kg,tonne"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049739DF-B581-49D3-8000-F5CBD78AC6C8}">
+  <dimension ref="A1:J38"/>
+  <sheetViews>
+    <sheetView zoomScale="96" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="2" max="2" width="20.46875" customWidth="1"/>
+    <col min="3" max="3" width="17.3515625" customWidth="1"/>
+    <col min="4" max="4" width="26.29296875" customWidth="1"/>
+    <col min="5" max="6" width="30.8203125" customWidth="1"/>
+    <col min="7" max="7" width="25.76171875" customWidth="1"/>
+    <col min="8" max="8" width="24.3515625" customWidth="1"/>
+    <col min="9" max="10" width="44.46875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="43" x14ac:dyDescent="0.5">
+      <c r="A6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A8" s="12">
+        <v>1</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2022</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="26">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F8:F1048576">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>OR(E8="Roadways",E8="Railways")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:G1048576">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>OR(E8="Airways", E8="Railways")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:H1048576">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>OR(E8="Airways", E8="Railways")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:I1048576">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>G8="Public"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H1048576" xr:uid="{D40874DF-6DA1-49F6-9A8A-53B4AC8095BA}">
+      <formula1>INDIRECT((G8))</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Entered value should be a positive number." sqref="J8:J38" xr:uid="{3E904A39-C901-438C-B6CC-F8D2DC192C23}">
+      <formula1>ISNUMBER(J8)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B38" xr:uid="{F6F61360-260C-4F4F-9FDE-AE73B5B6B721}">
+      <formula1>"Academic Area, Halls of Residence, Housing Areas, Others"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid year between 2000 and 2030" sqref="C8:C38" xr:uid="{EC0FA524-DC2C-4403-81E3-FADB3013C784}">
+      <formula1>2000</formula1>
+      <formula2>2030</formula2>
+    </dataValidation>
+    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid date." sqref="D8:D38" xr:uid="{217B3936-53FA-4299-AAEF-4E3D5ECBD70D}">
+      <formula1>"January, February, March,April, May, June, July, August, September, October, November, December"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A38" xr:uid="{4BD2B4B5-ED71-469F-AEF1-46726DF26BB4}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E1048576" xr:uid="{5954220B-2DBE-480C-A267-AE38D4B6A40F}">
+      <formula1>"Airways,Roadways,Railways"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G1048576" xr:uid="{532CD05D-A1EC-4652-B7A0-38C50B5DBD2A}">
+      <formula1>"Public,Personal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Entered value should be a positive number." sqref="I8:I1048576" xr:uid="{105FE0C0-EE06-4959-94D8-5467FBF519A8}">
+      <formula1>"Petrol/Gasoline,CNG,Diesel,Electric"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F1048576" xr:uid="{4A307E96-247E-4E07-A052-03AAD8A1B85C}">
+      <formula1>"Domestic, Short Haul, Long Haul, International"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B28777-62B5-46A5-9A2A-F1ACA479FDF1}">
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="2" max="2" width="20.46875" customWidth="1"/>
+    <col min="3" max="3" width="17.3515625" customWidth="1"/>
+    <col min="4" max="4" width="26.29296875" customWidth="1"/>
+    <col min="5" max="5" width="37.1171875" customWidth="1"/>
+    <col min="6" max="6" width="25.76171875" customWidth="1"/>
+    <col min="7" max="7" width="24.3515625" customWidth="1"/>
+    <col min="8" max="8" width="44.46875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="43" x14ac:dyDescent="0.5">
+      <c r="A6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A8" s="12">
+        <v>1</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2022</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="15">
+        <v>200</v>
+      </c>
+      <c r="F8" s="29">
+        <v>332</v>
+      </c>
+      <c r="G8" s="20">
+        <v>421</v>
+      </c>
+      <c r="H8" s="26">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="26"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="26"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="26"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="18"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="18"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="18"/>
+    </row>
+  </sheetData>
+  <dataValidations count="6">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Entered value should be a positive number." sqref="H8:H38" xr:uid="{0E64E2E5-800B-4515-AB34-DE73C8F3D38E}">
+      <formula1>ISNUMBER(H8)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B38" xr:uid="{BB073E14-C93A-4146-9E3B-39F836D87CB7}">
+      <formula1>"Academic Area, Halls of Residence, Housing Areas, Others"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid year between 2000 and 2030" sqref="C8:C38" xr:uid="{69073939-E312-4E1B-8A19-24884CFA8994}">
+      <formula1>2000</formula1>
+      <formula2>2030</formula2>
+    </dataValidation>
+    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid date." sqref="D8:D38" xr:uid="{E27E556A-16C6-4F6B-B6AA-DCB0D4895096}">
+      <formula1>"January, February, March,April, May, June, July, August, September, October, November, December"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A38" xr:uid="{B148EFA0-2E37-4A4C-B809-A2E2D28630FF}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:G1048576" xr:uid="{03C78334-62CF-4532-BDE3-0C8DDC979FF3}">
+      <formula1>ISNUMBER(E8)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3563727F-875E-43BC-8C8C-D4942504D1B0}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="24.52734375" customWidth="1"/>
+    <col min="2" max="2" width="31.1171875" customWidth="1"/>
+    <col min="3" max="3" width="18.703125" customWidth="1"/>
+    <col min="4" max="4" width="14.9375" customWidth="1"/>
+    <col min="5" max="6" width="13.234375" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carbon-calculator\carbon-calculator\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B59EEF-C28A-483C-98F7-0C5A61A037E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CAA571-7208-48EC-B489-D74F6141D5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11466" activeTab="4" xr2:uid="{6EC1FDFD-8CA5-4062-AFD1-B9F4C90CA3E6}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11466" firstSheet="1" activeTab="1" xr2:uid="{6EC1FDFD-8CA5-4062-AFD1-B9F4C90CA3E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Fossil Fuel" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Waste" sheetId="5" r:id="rId5"/>
     <sheet name="Travel" sheetId="7" r:id="rId6"/>
     <sheet name="Offset" sheetId="9" r:id="rId7"/>
-    <sheet name="Dropdowns" sheetId="10" state="hidden" r:id="rId8"/>
+    <sheet name="Dropdowns" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="CNG">Dropdowns!$I$2:$I$4</definedName>
@@ -29,11 +29,14 @@
     <definedName name="Food_and_Drink_Waste">Dropdowns!$C$2:$C$5</definedName>
     <definedName name="Garden_Waste">Dropdowns!$C$2:$C$5</definedName>
     <definedName name="Household_Residue">Dropdowns!$A$2:$A$4</definedName>
+    <definedName name="Large_Sized_Car">Dropdowns!$C$14:$C$17</definedName>
     <definedName name="LPG">Dropdowns!$F$2:$F$4</definedName>
+    <definedName name="Medium_Sized_Car">Dropdowns!$C$14:$C$17</definedName>
     <definedName name="Personal">Dropdowns!$B$7:$B$10</definedName>
     <definedName name="Petrol_Gasoline">Dropdowns!$E$2:$E$4</definedName>
     <definedName name="PNG">Dropdowns!$G$2:$G$4</definedName>
     <definedName name="Public">Dropdowns!$A$7:$A$8</definedName>
+    <definedName name="Small_Sized_Car">Dropdowns!$B$14:$B$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="108">
   <si>
     <t>Compulsory</t>
   </si>
@@ -193,9 +196,6 @@
     <t>Kanpur</t>
   </si>
   <si>
-    <t>Non-Renewable</t>
-  </si>
-  <si>
     <t>Others</t>
   </si>
   <si>
@@ -362,6 +362,27 @@
   </si>
   <si>
     <t>July</t>
+  </si>
+  <si>
+    <t>Coal/Thermal</t>
+  </si>
+  <si>
+    <t>Electric</t>
+  </si>
+  <si>
+    <t>Choose The Application Type</t>
+  </si>
+  <si>
+    <t>Application Type</t>
+  </si>
+  <si>
+    <t>Enter The Number of Units</t>
+  </si>
+  <si>
+    <t>Commercial Refrigeration</t>
+  </si>
+  <si>
+    <t>Number of Units</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1031,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1070,7 +1091,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1099,7 +1120,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
@@ -1122,7 +1143,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.5">
@@ -1172,22 +1193,50 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="18"/>
+      <c r="A10" s="12">
+        <v>3</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="12">
+        <v>2023</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="18">
+        <v>1000</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="18"/>
+      <c r="A11" s="12">
+        <v>4</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="12">
+        <v>2023</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="18">
+        <v>1000</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12" s="12"/>
@@ -1468,12 +1517,393 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB0691D-AC14-4570-8925-FB8FC705A77A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="20.46875" customWidth="1"/>
+    <col min="3" max="3" width="17.3515625" customWidth="1"/>
+    <col min="4" max="4" width="26.29296875" customWidth="1"/>
+    <col min="5" max="5" width="37.1171875" customWidth="1"/>
+    <col min="6" max="6" width="25.76171875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="43" x14ac:dyDescent="0.5">
+      <c r="A6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8" s="12">
+        <v>1</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2022</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="30"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="30"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="29"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="30"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="30"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="30"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="29"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="30"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="30"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="30"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="29"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="30"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="30"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="29"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="30"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="30"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="30"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="29"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="30"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="30"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="30"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="29"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="30"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="30"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="30"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="29"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="30"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="30"/>
+    </row>
+  </sheetData>
+  <dataValidations count="6">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:G1048576" xr:uid="{2E66BFF7-73DB-4329-95AB-1D32533774F7}">
+      <formula1>ISNUMBER(F8)</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A38" xr:uid="{44959C2C-3EC3-4697-859F-0B517A3D2669}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid date." sqref="D8:D38" xr:uid="{DC6A934E-DA81-4DB4-9473-620774A41257}">
+      <formula1>"January, February, March,April, May, June, July, August, September, October, November, December"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid year between 2000 and 2030" sqref="C8:C38" xr:uid="{718F35D4-D766-491E-896B-6B75769B2D08}">
+      <formula1>2000</formula1>
+      <formula2>2030</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B38" xr:uid="{34231235-2DDC-4F2F-B6B4-7A7BB0141ECC}">
+      <formula1>"Academic Area, Halls of Residence, Housing Areas, Others"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E1048576" xr:uid="{4AB81EA9-2B33-4D8E-BB81-97AFB5AAEF33}">
+      <formula1>"Domestic Refrigeration, Commercial Refrigeration, Industrial Refrigeration,Residential and Commercial A/Cs "</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1482,8 +1912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61268561-D42C-4F86-85B0-5DE1951E0B09}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1537,7 +1967,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="2"/>
@@ -1609,10 +2039,10 @@
         <v>2022</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>39</v>
@@ -1625,14 +2055,30 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="15"/>
+      <c r="A8" s="12">
+        <v>2</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2023</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="15">
+        <v>900</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A9" s="12"/>
@@ -1949,7 +2395,7 @@
       <formula2>2030</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E1048576" xr:uid="{A6FF9E8A-F32E-472C-A17B-C2884C6DF5BE}">
-      <formula1>"Renewable,Non-Renewable"</formula1>
+      <formula1>"Coal/Thermal,Solar"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1960,8 +2406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725DEBD1-D29B-4A2C-8BC4-0BC578E396ED}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="F6" zoomScale="80" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2026,7 +2472,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="2"/>
@@ -2118,19 +2564,19 @@
         <v>2</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="12">
         <v>2022</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E9" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="27" t="s">
         <v>48</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>49</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>43</v>
@@ -2140,24 +2586,56 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="18"/>
+      <c r="A10" s="12">
+        <v>3</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="12">
+        <v>2023</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="18">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="18"/>
+      <c r="A11" s="12">
+        <v>4</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="12">
+        <v>2023</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="18">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A12" s="12"/>
@@ -2462,8 +2940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEC9BD0-FCE7-409B-84BC-BAB9D159D2CA}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="96" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="C1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2528,7 +3006,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="2"/>
@@ -2551,10 +3029,10 @@
         <v>7</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>30</v>
@@ -2577,10 +3055,10 @@
         <v>13</v>
       </c>
       <c r="E7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="23" t="s">
         <v>52</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>53</v>
       </c>
       <c r="G7" s="24" t="s">
         <v>16</v>
@@ -2600,30 +3078,46 @@
         <v>2022</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H8" s="26">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="18"/>
+      <c r="A9" s="12">
+        <v>2</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="12">
+        <v>2023</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="18">
+        <v>90</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A10" s="12"/>
@@ -2952,7 +3446,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView zoomScale="96" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -3025,7 +3519,7 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="2"/>
@@ -3050,22 +3544,22 @@
         <v>7</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>78</v>
-      </c>
       <c r="J6" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
@@ -3082,13 +3576,13 @@
         <v>13</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H7" s="24" t="s">
         <v>15</v>
@@ -3097,7 +3591,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.5">
@@ -3105,23 +3599,23 @@
         <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="12">
         <v>2022</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I8" s="26" t="s">
         <v>19</v>
@@ -3131,16 +3625,34 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
+      <c r="A9" s="12">
+        <v>2</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="12">
+        <v>2023</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="F9" s="15"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
+      <c r="G9" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="18">
+        <v>4000</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10" s="12"/>
@@ -3538,7 +4050,7 @@
       <formula1>"Public,Personal"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Entered value should be a positive number." sqref="I8:I1048576" xr:uid="{105FE0C0-EE06-4959-94D8-5467FBF519A8}">
-      <formula1>"Petrol/Gasoline,CNG,Diesel,Electric"</formula1>
+      <formula1>INDIRECT(SUBSTITUTE(H8," ","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F1048576" xr:uid="{4A307E96-247E-4E07-A052-03AAD8A1B85C}">
       <formula1>"Domestic, Short Haul, Long Haul, International"</formula1>
@@ -3552,8 +4064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B28777-62B5-46A5-9A2A-F1ACA479FDF1}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="10" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -3618,7 +4130,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="2"/>
@@ -3641,16 +4153,16 @@
         <v>7</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.5">
@@ -3667,16 +4179,16 @@
         <v>13</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.5">
@@ -4033,10 +4545,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3563727F-875E-43BC-8C8C-D4942504D1B0}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B10"/>
+      <selection activeCell="C14" sqref="C14:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -4052,28 +4564,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" t="s">
-        <v>57</v>
-      </c>
       <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
         <v>60</v>
-      </c>
-      <c r="D1" t="s">
-        <v>61</v>
       </c>
       <c r="E1" t="s">
         <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I1" t="s">
         <v>19</v>
@@ -4081,45 +4593,45 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
         <v>37</v>
@@ -4139,73 +4651,125 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="C5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="B13" t="s">
         <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="B16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.5">
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carbon-calculator\carbon-calculator\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EFEA74-9824-4043-A266-16710646EF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68659205-48A8-40E6-88D6-0B5E7DD2FD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11466" firstSheet="1" activeTab="5" xr2:uid="{6EC1FDFD-8CA5-4062-AFD1-B9F4C90CA3E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6EC1FDFD-8CA5-4062-AFD1-B9F4C90CA3E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Fossil Fuel" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="89">
   <si>
     <t>Compulsory</t>
   </si>
@@ -112,12 +112,6 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>Academic Area</t>
-  </si>
-  <si>
-    <t>February</t>
-  </si>
-  <si>
     <t>CNG</t>
   </si>
   <si>
@@ -163,45 +157,12 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>January</t>
-  </si>
-  <si>
     <t>Petrol/Gasoline</t>
   </si>
   <si>
     <t>kg</t>
   </si>
   <si>
-    <t>Self-Produced</t>
-  </si>
-  <si>
-    <t>kWH</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>Supplied Water</t>
-  </si>
-  <si>
-    <t>million litres</t>
-  </si>
-  <si>
-    <t>Kanpur</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>Treated Water</t>
-  </si>
-  <si>
-    <t>Agra</t>
-  </si>
-  <si>
     <t>Select the Waste Type</t>
   </si>
   <si>
@@ -301,9 +262,6 @@
     <t>Distance Travelled (KM)</t>
   </si>
   <si>
-    <t>Roadways</t>
-  </si>
-  <si>
     <t>Motorcycle</t>
   </si>
   <si>
@@ -349,18 +307,6 @@
     <t>Large Sized Car</t>
   </si>
   <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>Coal/Thermal</t>
-  </si>
-  <si>
     <t>Electric</t>
   </si>
   <si>
@@ -373,58 +319,13 @@
     <t>Enter The Number of Units</t>
   </si>
   <si>
-    <t>Commercial Refrigeration</t>
-  </si>
-  <si>
     <t>Number of Units</t>
   </si>
   <si>
-    <t>Airways</t>
-  </si>
-  <si>
-    <t>Railways</t>
-  </si>
-  <si>
     <t>Select the type of Rail</t>
   </si>
   <si>
     <t>Rail Type</t>
-  </si>
-  <si>
-    <t>National Railways</t>
-  </si>
-  <si>
-    <t>Domestic</t>
-  </si>
-  <si>
-    <t>Residential Areas</t>
-  </si>
-  <si>
-    <t>Hostels</t>
-  </si>
-  <si>
-    <t>Health Centre</t>
-  </si>
-  <si>
-    <t>Schools</t>
-  </si>
-  <si>
-    <t>Visitor's Hostel</t>
-  </si>
-  <si>
-    <t>Servant's Quarters</t>
-  </si>
-  <si>
-    <t>Lawns and Horticulture</t>
-  </si>
-  <si>
-    <t>Dhobhighat</t>
-  </si>
-  <si>
-    <t>Shops/Bank/PO</t>
-  </si>
-  <si>
-    <t>November</t>
   </si>
 </sst>
 </file>
@@ -724,7 +625,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -764,76 +665,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1149,22 +980,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C07476-A2EF-4FE4-A678-01004A44B02C}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.703125" customWidth="1"/>
-    <col min="2" max="2" width="17.41015625" customWidth="1"/>
-    <col min="3" max="3" width="13.87890625" customWidth="1"/>
-    <col min="4" max="4" width="15.9375" customWidth="1"/>
-    <col min="5" max="5" width="17.76171875" customWidth="1"/>
-    <col min="6" max="6" width="23.05859375" customWidth="1"/>
-    <col min="7" max="7" width="32.1171875" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1175,7 +1006,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1186,7 +1017,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1197,7 +1028,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1208,9 +1039,9 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1219,7 +1050,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="43" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1239,10 +1070,10 @@
         <v>9</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -1262,102 +1093,46 @@
         <v>16</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A8" s="12">
-        <v>1</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="12">
-        <v>2022</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="17">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A9" s="12">
-        <v>2</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="12">
-        <v>2022</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="18">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A10" s="12">
-        <v>3</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" s="12">
-        <v>2023</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="18">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A11" s="12">
-        <v>4</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="12">
-        <v>2023</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="18">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
@@ -1366,7 +1141,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="12"/>
@@ -1375,7 +1150,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="12"/>
@@ -1384,7 +1159,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="12"/>
@@ -1393,7 +1168,7 @@
       <c r="F15" s="16"/>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="12"/>
@@ -1402,7 +1177,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="12"/>
@@ -1411,7 +1186,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="12"/>
@@ -1420,7 +1195,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="12"/>
@@ -1429,7 +1204,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="12"/>
@@ -1438,7 +1213,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="12"/>
@@ -1447,7 +1222,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="12"/>
@@ -1456,7 +1231,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="12"/>
@@ -1465,7 +1240,7 @@
       <c r="F23" s="16"/>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="12"/>
@@ -1474,7 +1249,7 @@
       <c r="F24" s="16"/>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="12"/>
@@ -1483,7 +1258,7 @@
       <c r="F25" s="16"/>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="12"/>
@@ -1492,7 +1267,7 @@
       <c r="F26" s="16"/>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="12"/>
@@ -1501,7 +1276,7 @@
       <c r="F27" s="16"/>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="12"/>
@@ -1510,7 +1285,7 @@
       <c r="F28" s="16"/>
       <c r="G28" s="18"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="12"/>
@@ -1519,7 +1294,7 @@
       <c r="F29" s="16"/>
       <c r="G29" s="18"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="12"/>
@@ -1528,7 +1303,7 @@
       <c r="F30" s="16"/>
       <c r="G30" s="18"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="12"/>
@@ -1537,7 +1312,7 @@
       <c r="F31" s="16"/>
       <c r="G31" s="18"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="12"/>
@@ -1546,7 +1321,7 @@
       <c r="F32" s="16"/>
       <c r="G32" s="17"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="12"/>
@@ -1555,7 +1330,7 @@
       <c r="F33" s="16"/>
       <c r="G33" s="18"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="12"/>
@@ -1564,7 +1339,7 @@
       <c r="F34" s="16"/>
       <c r="G34" s="18"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="12"/>
@@ -1573,7 +1348,7 @@
       <c r="F35" s="16"/>
       <c r="G35" s="18"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="12"/>
@@ -1582,7 +1357,7 @@
       <c r="F36" s="16"/>
       <c r="G36" s="18"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="12"/>
@@ -1591,7 +1366,7 @@
       <c r="F37" s="16"/>
       <c r="G37" s="18"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="12"/>
@@ -1639,19 +1414,19 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.46875" customWidth="1"/>
-    <col min="3" max="3" width="17.3515625" customWidth="1"/>
-    <col min="4" max="4" width="26.29296875" customWidth="1"/>
-    <col min="5" max="5" width="37.1171875" customWidth="1"/>
-    <col min="6" max="6" width="25.76171875" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1661,7 +1436,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1671,7 +1446,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -1681,7 +1456,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -1691,17 +1466,17 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="43" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1715,13 +1490,13 @@
         <v>7</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -1735,33 +1510,21 @@
         <v>13</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A8" s="12">
-        <v>1</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="12">
-        <v>2022</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" s="29">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="29"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
@@ -1769,7 +1532,7 @@
       <c r="E9" s="15"/>
       <c r="F9" s="30"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
@@ -1777,7 +1540,7 @@
       <c r="E10" s="15"/>
       <c r="F10" s="30"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
@@ -1785,7 +1548,7 @@
       <c r="E11" s="15"/>
       <c r="F11" s="30"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
@@ -1793,7 +1556,7 @@
       <c r="E12" s="15"/>
       <c r="F12" s="29"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="12"/>
@@ -1801,7 +1564,7 @@
       <c r="E13" s="15"/>
       <c r="F13" s="30"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="12"/>
@@ -1809,7 +1572,7 @@
       <c r="E14" s="15"/>
       <c r="F14" s="30"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="12"/>
@@ -1817,7 +1580,7 @@
       <c r="E15" s="15"/>
       <c r="F15" s="30"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="12"/>
@@ -1825,7 +1588,7 @@
       <c r="E16" s="15"/>
       <c r="F16" s="29"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="12"/>
@@ -1833,7 +1596,7 @@
       <c r="E17" s="15"/>
       <c r="F17" s="30"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="12"/>
@@ -1841,7 +1604,7 @@
       <c r="E18" s="15"/>
       <c r="F18" s="30"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="12"/>
@@ -1849,7 +1612,7 @@
       <c r="E19" s="15"/>
       <c r="F19" s="30"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="12"/>
@@ -1857,7 +1620,7 @@
       <c r="E20" s="15"/>
       <c r="F20" s="29"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="12"/>
@@ -1865,7 +1628,7 @@
       <c r="E21" s="15"/>
       <c r="F21" s="30"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="12"/>
@@ -1873,7 +1636,7 @@
       <c r="E22" s="15"/>
       <c r="F22" s="30"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="12"/>
@@ -1881,7 +1644,7 @@
       <c r="E23" s="15"/>
       <c r="F23" s="30"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="12"/>
@@ -1889,7 +1652,7 @@
       <c r="E24" s="15"/>
       <c r="F24" s="29"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="12"/>
@@ -1897,7 +1660,7 @@
       <c r="E25" s="15"/>
       <c r="F25" s="30"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="12"/>
@@ -1905,7 +1668,7 @@
       <c r="E26" s="15"/>
       <c r="F26" s="30"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="12"/>
@@ -1913,7 +1676,7 @@
       <c r="E27" s="15"/>
       <c r="F27" s="30"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="12"/>
@@ -1921,7 +1684,7 @@
       <c r="E28" s="15"/>
       <c r="F28" s="29"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="12"/>
@@ -1929,7 +1692,7 @@
       <c r="E29" s="15"/>
       <c r="F29" s="30"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="12"/>
@@ -1937,7 +1700,7 @@
       <c r="E30" s="15"/>
       <c r="F30" s="30"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="12"/>
@@ -1945,7 +1708,7 @@
       <c r="E31" s="15"/>
       <c r="F31" s="30"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="12"/>
@@ -1953,7 +1716,7 @@
       <c r="E32" s="15"/>
       <c r="F32" s="29"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="12"/>
@@ -1961,7 +1724,7 @@
       <c r="E33" s="15"/>
       <c r="F33" s="30"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="12"/>
@@ -1969,7 +1732,7 @@
       <c r="E34" s="15"/>
       <c r="F34" s="30"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="12"/>
@@ -1977,7 +1740,7 @@
       <c r="E35" s="15"/>
       <c r="F35" s="30"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="12"/>
@@ -1985,7 +1748,7 @@
       <c r="E36" s="15"/>
       <c r="F36" s="29"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="12"/>
@@ -1993,7 +1756,7 @@
       <c r="E37" s="15"/>
       <c r="F37" s="30"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="12"/>
@@ -2032,22 +1795,22 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B1048576"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.703125" customWidth="1"/>
-    <col min="2" max="2" width="14.46875" customWidth="1"/>
-    <col min="3" max="3" width="19.5859375" customWidth="1"/>
-    <col min="4" max="4" width="21.87890625" customWidth="1"/>
-    <col min="5" max="5" width="24.64453125" customWidth="1"/>
-    <col min="6" max="6" width="20.76171875" customWidth="1"/>
-    <col min="7" max="7" width="11.8203125" customWidth="1"/>
-    <col min="8" max="8" width="17.703125" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="15"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2059,7 +1822,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -2071,7 +1834,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -2083,10 +1846,10 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="2"/>
@@ -2095,7 +1858,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="43" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -2106,22 +1869,22 @@
         <v>6</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
@@ -2135,71 +1898,39 @@
         <v>13</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A7" s="12">
-        <v>1</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="12">
-        <v>2022</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="15">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A8" s="12">
-        <v>2</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="12">
-        <v>2023</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="15">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
@@ -2209,7 +1940,7 @@
       <c r="G9" s="20"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
@@ -2219,7 +1950,7 @@
       <c r="G10" s="20"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
@@ -2229,7 +1960,7 @@
       <c r="G11" s="20"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
@@ -2239,7 +1970,7 @@
       <c r="G12" s="20"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="12"/>
@@ -2249,7 +1980,7 @@
       <c r="G13" s="20"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="12"/>
@@ -2259,7 +1990,7 @@
       <c r="G14" s="20"/>
       <c r="H14" s="21"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="12"/>
@@ -2269,7 +2000,7 @@
       <c r="G15" s="20"/>
       <c r="H15" s="21"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="12"/>
@@ -2279,7 +2010,7 @@
       <c r="G16" s="20"/>
       <c r="H16" s="21"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="12"/>
@@ -2289,7 +2020,7 @@
       <c r="G17" s="20"/>
       <c r="H17" s="21"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="12"/>
@@ -2299,7 +2030,7 @@
       <c r="G18" s="20"/>
       <c r="H18" s="15"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="12"/>
@@ -2309,7 +2040,7 @@
       <c r="G19" s="20"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="12"/>
@@ -2319,7 +2050,7 @@
       <c r="G20" s="20"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="12"/>
@@ -2329,7 +2060,7 @@
       <c r="G21" s="20"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="12"/>
@@ -2339,7 +2070,7 @@
       <c r="G22" s="20"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="12"/>
@@ -2349,7 +2080,7 @@
       <c r="G23" s="20"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="12"/>
@@ -2359,7 +2090,7 @@
       <c r="G24" s="20"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="12"/>
@@ -2369,7 +2100,7 @@
       <c r="G25" s="20"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="12"/>
@@ -2379,7 +2110,7 @@
       <c r="G26" s="20"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="12"/>
@@ -2389,7 +2120,7 @@
       <c r="G27" s="20"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="12"/>
@@ -2399,7 +2130,7 @@
       <c r="G28" s="20"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="12"/>
@@ -2409,7 +2140,7 @@
       <c r="G29" s="20"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="12"/>
@@ -2419,7 +2150,7 @@
       <c r="G30" s="20"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="12"/>
@@ -2429,7 +2160,7 @@
       <c r="G31" s="20"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="12"/>
@@ -2439,7 +2170,7 @@
       <c r="G32" s="20"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="12"/>
@@ -2449,7 +2180,7 @@
       <c r="G33" s="20"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="12"/>
@@ -2459,7 +2190,7 @@
       <c r="G34" s="20"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="12"/>
@@ -2469,7 +2200,7 @@
       <c r="G35" s="20"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="12"/>
@@ -2479,7 +2210,7 @@
       <c r="G36" s="20"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="12"/>
@@ -2526,21 +2257,21 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.46875" customWidth="1"/>
-    <col min="3" max="3" width="17.3515625" customWidth="1"/>
-    <col min="4" max="4" width="26.29296875" customWidth="1"/>
-    <col min="5" max="5" width="15.703125" customWidth="1"/>
-    <col min="6" max="6" width="28.64453125" customWidth="1"/>
-    <col min="7" max="7" width="24.3515625" customWidth="1"/>
-    <col min="8" max="8" width="44.46875" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="8" max="8" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2552,7 +2283,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -2564,7 +2295,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -2576,7 +2307,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -2588,10 +2319,10 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="2"/>
@@ -2600,7 +2331,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -2614,19 +2345,19 @@
         <v>7</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -2640,123 +2371,59 @@
         <v>13</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A8" s="12">
-        <v>1</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="12">
-        <v>2022</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A9" s="12">
-        <v>2</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="12">
-        <v>2022</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A10" s="12">
-        <v>3</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="12">
-        <v>2023</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A11" s="12">
-        <v>4</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="12">
-        <v>2023</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
@@ -2766,7 +2433,7 @@
       <c r="G12" s="20"/>
       <c r="H12" s="26"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="12"/>
@@ -2776,7 +2443,7 @@
       <c r="G13" s="15"/>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="12"/>
@@ -2786,7 +2453,7 @@
       <c r="G14" s="15"/>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="12"/>
@@ -2796,7 +2463,7 @@
       <c r="G15" s="15"/>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="12"/>
@@ -2806,7 +2473,7 @@
       <c r="G16" s="20"/>
       <c r="H16" s="26"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="12"/>
@@ -2816,7 +2483,7 @@
       <c r="G17" s="15"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="12"/>
@@ -2826,7 +2493,7 @@
       <c r="G18" s="15"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="12"/>
@@ -2836,7 +2503,7 @@
       <c r="G19" s="15"/>
       <c r="H19" s="18"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="12"/>
@@ -2846,7 +2513,7 @@
       <c r="G20" s="20"/>
       <c r="H20" s="26"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="12"/>
@@ -2856,7 +2523,7 @@
       <c r="G21" s="15"/>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="12"/>
@@ -2866,7 +2533,7 @@
       <c r="G22" s="15"/>
       <c r="H22" s="18"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="12"/>
@@ -2876,7 +2543,7 @@
       <c r="G23" s="15"/>
       <c r="H23" s="18"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="12"/>
@@ -2886,7 +2553,7 @@
       <c r="G24" s="20"/>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="12"/>
@@ -2896,7 +2563,7 @@
       <c r="G25" s="15"/>
       <c r="H25" s="18"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="12"/>
@@ -2906,7 +2573,7 @@
       <c r="G26" s="15"/>
       <c r="H26" s="18"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="12"/>
@@ -2916,7 +2583,7 @@
       <c r="G27" s="15"/>
       <c r="H27" s="18"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="12"/>
@@ -2926,7 +2593,7 @@
       <c r="G28" s="20"/>
       <c r="H28" s="18"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="12"/>
@@ -2936,7 +2603,7 @@
       <c r="G29" s="15"/>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="12"/>
@@ -2946,7 +2613,7 @@
       <c r="G30" s="15"/>
       <c r="H30" s="18"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="12"/>
@@ -2956,7 +2623,7 @@
       <c r="G31" s="15"/>
       <c r="H31" s="18"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="12"/>
@@ -2966,7 +2633,7 @@
       <c r="G32" s="20"/>
       <c r="H32" s="18"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="12"/>
@@ -2976,7 +2643,7 @@
       <c r="G33" s="15"/>
       <c r="H33" s="18"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="12"/>
@@ -2986,7 +2653,7 @@
       <c r="G34" s="15"/>
       <c r="H34" s="18"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="12"/>
@@ -2996,7 +2663,7 @@
       <c r="G35" s="15"/>
       <c r="H35" s="18"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="12"/>
@@ -3006,7 +2673,7 @@
       <c r="G36" s="20"/>
       <c r="H36" s="18"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="12"/>
@@ -3016,7 +2683,7 @@
       <c r="G37" s="15"/>
       <c r="H37" s="18"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="12"/>
@@ -3060,21 +2727,21 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView zoomScale="96" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.46875" customWidth="1"/>
-    <col min="3" max="3" width="17.3515625" customWidth="1"/>
-    <col min="4" max="4" width="26.29296875" customWidth="1"/>
-    <col min="5" max="5" width="37.1171875" customWidth="1"/>
-    <col min="6" max="6" width="25.76171875" customWidth="1"/>
-    <col min="7" max="7" width="24.3515625" customWidth="1"/>
-    <col min="8" max="8" width="27.3515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3086,7 +2753,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -3098,7 +2765,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -3110,7 +2777,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -3122,10 +2789,10 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="2"/>
@@ -3134,7 +2801,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="43" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -3148,19 +2815,19 @@
         <v>7</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -3174,71 +2841,39 @@
         <v>13</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A8" s="12">
-        <v>1</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="12">
-        <v>2022</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" s="26">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A9" s="12">
-        <v>2</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="12">
-        <v>2023</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" s="18">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
@@ -3248,7 +2883,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
@@ -3258,7 +2893,7 @@
       <c r="G11" s="15"/>
       <c r="H11" s="18"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
@@ -3268,7 +2903,7 @@
       <c r="G12" s="20"/>
       <c r="H12" s="26"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="12"/>
@@ -3278,7 +2913,7 @@
       <c r="G13" s="15"/>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="12"/>
@@ -3288,7 +2923,7 @@
       <c r="G14" s="15"/>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="12"/>
@@ -3298,7 +2933,7 @@
       <c r="G15" s="15"/>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="12"/>
@@ -3308,7 +2943,7 @@
       <c r="G16" s="20"/>
       <c r="H16" s="26"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="12"/>
@@ -3318,7 +2953,7 @@
       <c r="G17" s="15"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="12"/>
@@ -3328,7 +2963,7 @@
       <c r="G18" s="15"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="12"/>
@@ -3338,7 +2973,7 @@
       <c r="G19" s="15"/>
       <c r="H19" s="18"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="12"/>
@@ -3348,7 +2983,7 @@
       <c r="G20" s="20"/>
       <c r="H20" s="26"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="12"/>
@@ -3358,7 +2993,7 @@
       <c r="G21" s="15"/>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="12"/>
@@ -3368,7 +3003,7 @@
       <c r="G22" s="15"/>
       <c r="H22" s="18"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="12"/>
@@ -3378,7 +3013,7 @@
       <c r="G23" s="15"/>
       <c r="H23" s="18"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="12"/>
@@ -3388,7 +3023,7 @@
       <c r="G24" s="20"/>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="12"/>
@@ -3398,7 +3033,7 @@
       <c r="G25" s="15"/>
       <c r="H25" s="18"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="12"/>
@@ -3408,7 +3043,7 @@
       <c r="G26" s="15"/>
       <c r="H26" s="18"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="12"/>
@@ -3418,7 +3053,7 @@
       <c r="G27" s="15"/>
       <c r="H27" s="18"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="12"/>
@@ -3428,7 +3063,7 @@
       <c r="G28" s="20"/>
       <c r="H28" s="18"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="12"/>
@@ -3438,7 +3073,7 @@
       <c r="G29" s="15"/>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="12"/>
@@ -3448,7 +3083,7 @@
       <c r="G30" s="15"/>
       <c r="H30" s="18"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="12"/>
@@ -3458,7 +3093,7 @@
       <c r="G31" s="15"/>
       <c r="H31" s="18"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="12"/>
@@ -3468,7 +3103,7 @@
       <c r="G32" s="20"/>
       <c r="H32" s="18"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="12"/>
@@ -3478,7 +3113,7 @@
       <c r="G33" s="15"/>
       <c r="H33" s="18"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="12"/>
@@ -3488,7 +3123,7 @@
       <c r="G34" s="15"/>
       <c r="H34" s="18"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="12"/>
@@ -3498,7 +3133,7 @@
       <c r="G35" s="15"/>
       <c r="H35" s="18"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="12"/>
@@ -3508,7 +3143,7 @@
       <c r="G36" s="20"/>
       <c r="H36" s="18"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="12"/>
@@ -3518,7 +3153,7 @@
       <c r="G37" s="15"/>
       <c r="H37" s="18"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="12"/>
@@ -3564,22 +3199,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049739DF-B581-49D3-8000-F5CBD78AC6C8}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="F7" sqref="F6:F7"/>
+    <sheetView zoomScale="69" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.46875" customWidth="1"/>
-    <col min="3" max="3" width="17.3515625" customWidth="1"/>
-    <col min="4" max="4" width="26.29296875" customWidth="1"/>
-    <col min="5" max="7" width="30.8203125" customWidth="1"/>
-    <col min="8" max="8" width="25.76171875" customWidth="1"/>
-    <col min="9" max="9" width="24.3515625" customWidth="1"/>
-    <col min="10" max="11" width="44.46875" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="7" width="30.85546875" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" customWidth="1"/>
+    <col min="10" max="11" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3594,7 +3229,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -3609,7 +3244,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -3624,7 +3259,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -3639,10 +3274,10 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="2"/>
@@ -3654,7 +3289,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="43" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -3668,28 +3303,28 @@
         <v>7</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -3703,16 +3338,16 @@
         <v>13</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="I7" s="24" t="s">
         <v>15</v>
@@ -3721,103 +3356,49 @@
         <v>14</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A8" s="12">
-        <v>1</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="12">
-        <v>2022</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>110</v>
-      </c>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="26">
-        <v>4210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A9" s="12">
-        <v>2</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="12">
-        <v>2023</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>106</v>
-      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9" s="18">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A10" s="12">
-        <v>3</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="12">
-        <v>2023</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>110</v>
-      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="30"/>
       <c r="I10" s="15"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="18">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
@@ -3830,7 +3411,7 @@
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
@@ -3843,7 +3424,7 @@
       <c r="J12" s="26"/>
       <c r="K12" s="26"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="12"/>
@@ -3856,7 +3437,7 @@
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="12"/>
@@ -3869,7 +3450,7 @@
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="12"/>
@@ -3882,7 +3463,7 @@
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="12"/>
@@ -3895,7 +3476,7 @@
       <c r="J16" s="26"/>
       <c r="K16" s="26"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="12"/>
@@ -3908,7 +3489,7 @@
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="12"/>
@@ -3921,7 +3502,7 @@
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="12"/>
@@ -3934,7 +3515,7 @@
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="12"/>
@@ -3947,7 +3528,7 @@
       <c r="J20" s="26"/>
       <c r="K20" s="26"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="12"/>
@@ -3960,7 +3541,7 @@
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="12"/>
@@ -3973,7 +3554,7 @@
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="12"/>
@@ -3986,7 +3567,7 @@
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="12"/>
@@ -3999,7 +3580,7 @@
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="12"/>
@@ -4012,7 +3593,7 @@
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="12"/>
@@ -4025,7 +3606,7 @@
       <c r="J26" s="18"/>
       <c r="K26" s="18"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="12"/>
@@ -4038,7 +3619,7 @@
       <c r="J27" s="18"/>
       <c r="K27" s="18"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="12"/>
@@ -4051,7 +3632,7 @@
       <c r="J28" s="18"/>
       <c r="K28" s="18"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="12"/>
@@ -4064,7 +3645,7 @@
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="12"/>
@@ -4077,7 +3658,7 @@
       <c r="J30" s="18"/>
       <c r="K30" s="18"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="12"/>
@@ -4090,7 +3671,7 @@
       <c r="J31" s="18"/>
       <c r="K31" s="18"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="12"/>
@@ -4103,7 +3684,7 @@
       <c r="J32" s="18"/>
       <c r="K32" s="18"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="12"/>
@@ -4116,7 +3697,7 @@
       <c r="J33" s="18"/>
       <c r="K33" s="18"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="12"/>
@@ -4129,7 +3710,7 @@
       <c r="J34" s="18"/>
       <c r="K34" s="18"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="12"/>
@@ -4142,7 +3723,7 @@
       <c r="J35" s="18"/>
       <c r="K35" s="18"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="12"/>
@@ -4155,7 +3736,7 @@
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="12"/>
@@ -4168,7 +3749,7 @@
       <c r="J37" s="18"/>
       <c r="K37" s="18"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="12"/>
@@ -4182,29 +3763,29 @@
       <c r="K38" s="18"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F8:F1048576">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>(OR(E8="Airways",E8="Roadways"))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G8:G1048576">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>OR(E8="Roadways",E8="Railways")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H1048576">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>OR(E8="Airways", E8="Railways")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:I1048576">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>OR(E8="Airways", E8="Railways")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J1048576">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>OR(E8="Airways",E8="Railways",H8="Public")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>(OR(E8="Airways",E8="Roadways"))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="11">
@@ -4252,21 +3833,21 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B1048576"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.46875" customWidth="1"/>
-    <col min="3" max="3" width="17.3515625" customWidth="1"/>
-    <col min="4" max="4" width="26.29296875" customWidth="1"/>
-    <col min="5" max="5" width="37.1171875" customWidth="1"/>
-    <col min="6" max="6" width="25.76171875" customWidth="1"/>
-    <col min="7" max="7" width="24.3515625" customWidth="1"/>
-    <col min="8" max="8" width="44.46875" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="8" max="8" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4278,7 +3859,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -4290,7 +3871,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -4302,7 +3883,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -4314,10 +3895,10 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="2"/>
@@ -4326,7 +3907,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="43" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -4340,19 +3921,19 @@
         <v>7</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -4366,45 +3947,29 @@
         <v>13</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A8" s="12">
-        <v>1</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="12">
-        <v>2022</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="15">
-        <v>200</v>
-      </c>
-      <c r="F8" s="29">
-        <v>332</v>
-      </c>
-      <c r="G8" s="20">
-        <v>421</v>
-      </c>
-      <c r="H8" s="26">
-        <v>4210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
@@ -4414,7 +3979,7 @@
       <c r="G9" s="15"/>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
@@ -4424,7 +3989,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
@@ -4434,7 +3999,7 @@
       <c r="G11" s="15"/>
       <c r="H11" s="18"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
@@ -4444,7 +4009,7 @@
       <c r="G12" s="20"/>
       <c r="H12" s="26"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="12"/>
@@ -4454,7 +4019,7 @@
       <c r="G13" s="15"/>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="12"/>
@@ -4464,7 +4029,7 @@
       <c r="G14" s="15"/>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="12"/>
@@ -4474,7 +4039,7 @@
       <c r="G15" s="15"/>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="12"/>
@@ -4484,7 +4049,7 @@
       <c r="G16" s="20"/>
       <c r="H16" s="26"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="12"/>
@@ -4494,7 +4059,7 @@
       <c r="G17" s="15"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="12"/>
@@ -4504,7 +4069,7 @@
       <c r="G18" s="15"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="12"/>
@@ -4514,7 +4079,7 @@
       <c r="G19" s="15"/>
       <c r="H19" s="18"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="12"/>
@@ -4524,7 +4089,7 @@
       <c r="G20" s="20"/>
       <c r="H20" s="26"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="12"/>
@@ -4534,7 +4099,7 @@
       <c r="G21" s="15"/>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="12"/>
@@ -4544,7 +4109,7 @@
       <c r="G22" s="15"/>
       <c r="H22" s="18"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="12"/>
@@ -4554,7 +4119,7 @@
       <c r="G23" s="15"/>
       <c r="H23" s="18"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="12"/>
@@ -4564,7 +4129,7 @@
       <c r="G24" s="20"/>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="12"/>
@@ -4574,7 +4139,7 @@
       <c r="G25" s="15"/>
       <c r="H25" s="18"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="12"/>
@@ -4584,7 +4149,7 @@
       <c r="G26" s="15"/>
       <c r="H26" s="18"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="12"/>
@@ -4594,7 +4159,7 @@
       <c r="G27" s="15"/>
       <c r="H27" s="18"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="12"/>
@@ -4604,7 +4169,7 @@
       <c r="G28" s="20"/>
       <c r="H28" s="18"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="12"/>
@@ -4614,7 +4179,7 @@
       <c r="G29" s="15"/>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="12"/>
@@ -4624,7 +4189,7 @@
       <c r="G30" s="15"/>
       <c r="H30" s="18"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="12"/>
@@ -4634,7 +4199,7 @@
       <c r="G31" s="15"/>
       <c r="H31" s="18"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="12"/>
@@ -4644,7 +4209,7 @@
       <c r="G32" s="20"/>
       <c r="H32" s="18"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="12"/>
@@ -4654,7 +4219,7 @@
       <c r="G33" s="15"/>
       <c r="H33" s="18"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="12"/>
@@ -4664,7 +4229,7 @@
       <c r="G34" s="15"/>
       <c r="H34" s="18"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="12"/>
@@ -4674,7 +4239,7 @@
       <c r="G35" s="15"/>
       <c r="H35" s="18"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="12"/>
@@ -4684,7 +4249,7 @@
       <c r="G36" s="20"/>
       <c r="H36" s="18"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="12"/>
@@ -4694,7 +4259,7 @@
       <c r="G37" s="15"/>
       <c r="H37" s="18"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="12"/>
@@ -4738,225 +4303,225 @@
       <selection activeCell="C14" sqref="C14:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.52734375" customWidth="1"/>
-    <col min="2" max="2" width="31.1171875" customWidth="1"/>
-    <col min="3" max="3" width="18.703125" customWidth="1"/>
-    <col min="4" max="4" width="14.9375" customWidth="1"/>
-    <col min="5" max="6" width="13.234375" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="6" width="13.28515625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="G1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="B9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="B10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="B13" t="s">
+      <c r="C16" t="s">
         <v>82</v>
       </c>
-      <c r="C13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="B15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="B16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" t="s">
-        <v>100</v>
-      </c>
       <c r="D16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carbon-calculator\carbon-calculator\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2834C098-3A62-48DB-967E-DE8AE77CB0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B59EEF-C28A-483C-98F7-0C5A61A037E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11466" activeTab="4" xr2:uid="{6EC1FDFD-8CA5-4062-AFD1-B9F4C90CA3E6}"/>
   </bookViews>
@@ -2463,7 +2463,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C6" zoomScale="96" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>

--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carbon-calculator\carbon-calculator\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68659205-48A8-40E6-88D6-0B5E7DD2FD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C6D980-EFC6-42D1-9F18-F68FC581CEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6EC1FDFD-8CA5-4062-AFD1-B9F4C90CA3E6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{6EC1FDFD-8CA5-4062-AFD1-B9F4C90CA3E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Fossil Fuel" sheetId="1" r:id="rId1"/>
@@ -42,17 +42,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -534,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -601,14 +590,7 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -625,7 +607,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -980,22 +983,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C07476-A2EF-4FE4-A678-01004A44B02C}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" customWidth="1"/>
+    <col min="7" max="7" width="32.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1006,7 +1009,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1017,7 +1020,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1028,7 +1031,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1039,7 +1042,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>47</v>
       </c>
@@ -1050,7 +1053,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1073,7 +1076,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -1096,7 +1099,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="12"/>
@@ -1105,16 +1108,16 @@
       <c r="F8" s="16"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
       <c r="D9" s="14"/>
       <c r="E9" s="15"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
@@ -1123,7 +1126,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
@@ -1132,7 +1135,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
@@ -1141,7 +1144,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="12"/>
@@ -1150,7 +1153,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="12"/>
@@ -1159,7 +1162,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="12"/>
@@ -1168,7 +1171,7 @@
       <c r="F15" s="16"/>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="12"/>
@@ -1177,7 +1180,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="12"/>
@@ -1186,7 +1189,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="12"/>
@@ -1195,7 +1198,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="12"/>
@@ -1204,7 +1207,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="12"/>
@@ -1213,7 +1216,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="12"/>
@@ -1222,7 +1225,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="12"/>
@@ -1231,7 +1234,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="12"/>
@@ -1240,7 +1243,7 @@
       <c r="F23" s="16"/>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="12"/>
@@ -1249,7 +1252,7 @@
       <c r="F24" s="16"/>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="12"/>
@@ -1258,7 +1261,7 @@
       <c r="F25" s="16"/>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="12"/>
@@ -1267,7 +1270,7 @@
       <c r="F26" s="16"/>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="12"/>
@@ -1276,7 +1279,7 @@
       <c r="F27" s="16"/>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="12"/>
@@ -1285,7 +1288,7 @@
       <c r="F28" s="16"/>
       <c r="G28" s="18"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="12"/>
@@ -1294,7 +1297,7 @@
       <c r="F29" s="16"/>
       <c r="G29" s="18"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="12"/>
@@ -1303,7 +1306,7 @@
       <c r="F30" s="16"/>
       <c r="G30" s="18"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="12"/>
@@ -1312,7 +1315,7 @@
       <c r="F31" s="16"/>
       <c r="G31" s="18"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="12"/>
@@ -1321,7 +1324,7 @@
       <c r="F32" s="16"/>
       <c r="G32" s="17"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="12"/>
@@ -1330,7 +1333,7 @@
       <c r="F33" s="16"/>
       <c r="G33" s="18"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="12"/>
@@ -1339,7 +1342,7 @@
       <c r="F34" s="16"/>
       <c r="G34" s="18"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="12"/>
@@ -1348,7 +1351,7 @@
       <c r="F35" s="16"/>
       <c r="G35" s="18"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="12"/>
@@ -1357,7 +1360,7 @@
       <c r="F36" s="16"/>
       <c r="G36" s="18"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="12"/>
@@ -1366,7 +1369,7 @@
       <c r="F37" s="16"/>
       <c r="G37" s="18"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="12"/>
@@ -1376,16 +1379,17 @@
       <c r="G38" s="18"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F8:F38">
-    <cfRule type="expression" dxfId="5" priority="6">
+  <conditionalFormatting sqref="F10:F38">
+    <cfRule type="expression" dxfId="8" priority="7">
+      <formula>#REF!="Mobile Combustion"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F9">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>#REF!="Mobile Combustion"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter an year between 2000 and 2030" sqref="C8:C38" xr:uid="{9FA2C19A-5283-4B41-A7D8-30CF25E05C80}">
-      <formula1>2000</formula1>
-      <formula2>2030</formula2>
-    </dataValidation>
     <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid month._x000a_" sqref="D8:D38" xr:uid="{5946F93D-7A19-41B0-84B9-83EF94595469}">
       <formula1>"January,February,March,April,May,June,July,August,September,October,November,December"</formula1>
     </dataValidation>
@@ -1403,6 +1407,10 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B1048576" xr:uid="{5E62ED86-2CEB-4C76-9B73-D8A383DFA6DB}">
       <formula1>"Residential Areas,Hostels,Academic Area,Health Centre,Schools,Visitor's Hostel,Servant's Quarters,Shops, Bank and PO,Lawns and Horticulture,Dhobhighat,Others"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid year out of 2022 or 2023" sqref="C8:C1048576" xr:uid="{D3D31FAA-0338-4336-9B68-F1986CC1383A}">
+      <formula1>2022</formula1>
+      <formula2>2023</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1414,19 +1422,19 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" customWidth="1"/>
+    <col min="4" max="4" width="26.26953125" customWidth="1"/>
+    <col min="5" max="5" width="37.1796875" customWidth="1"/>
+    <col min="6" max="6" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1436,7 +1444,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1446,7 +1454,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -1456,7 +1464,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -1466,7 +1474,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>46</v>
@@ -1476,7 +1484,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1496,7 +1504,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -1516,253 +1524,253 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="12"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="29"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="27"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
       <c r="D9" s="14"/>
       <c r="E9" s="15"/>
-      <c r="F9" s="30"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
       <c r="D10" s="14"/>
       <c r="E10" s="15"/>
-      <c r="F10" s="30"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="28"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
       <c r="D11" s="14"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="30"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="28"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
       <c r="D12" s="14"/>
       <c r="E12" s="15"/>
-      <c r="F12" s="29"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="12"/>
       <c r="D13" s="14"/>
       <c r="E13" s="15"/>
-      <c r="F13" s="30"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="12"/>
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
-      <c r="F14" s="30"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="12"/>
       <c r="D15" s="14"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="30"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="12"/>
       <c r="D16" s="14"/>
       <c r="E16" s="15"/>
-      <c r="F16" s="29"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="12"/>
       <c r="D17" s="14"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="30"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="28"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="12"/>
       <c r="D18" s="14"/>
       <c r="E18" s="15"/>
-      <c r="F18" s="30"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="28"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="12"/>
       <c r="D19" s="14"/>
       <c r="E19" s="15"/>
-      <c r="F19" s="30"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="28"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="12"/>
       <c r="D20" s="14"/>
       <c r="E20" s="15"/>
-      <c r="F20" s="29"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="27"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="12"/>
       <c r="D21" s="14"/>
       <c r="E21" s="15"/>
-      <c r="F21" s="30"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="28"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="12"/>
       <c r="D22" s="14"/>
       <c r="E22" s="15"/>
-      <c r="F22" s="30"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="28"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="12"/>
       <c r="D23" s="14"/>
       <c r="E23" s="15"/>
-      <c r="F23" s="30"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="28"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="12"/>
       <c r="D24" s="14"/>
       <c r="E24" s="15"/>
-      <c r="F24" s="29"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="27"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="12"/>
       <c r="D25" s="14"/>
       <c r="E25" s="15"/>
-      <c r="F25" s="30"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="28"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="12"/>
       <c r="D26" s="14"/>
       <c r="E26" s="15"/>
-      <c r="F26" s="30"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="28"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="28"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="15"/>
-      <c r="F27" s="30"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="28"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="12"/>
       <c r="D28" s="14"/>
       <c r="E28" s="15"/>
-      <c r="F28" s="29"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="27"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="12"/>
       <c r="D29" s="14"/>
       <c r="E29" s="15"/>
-      <c r="F29" s="30"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="28"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="12"/>
       <c r="D30" s="14"/>
       <c r="E30" s="15"/>
-      <c r="F30" s="30"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="28"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="28"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="15"/>
-      <c r="F31" s="30"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="28"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="12"/>
       <c r="D32" s="14"/>
       <c r="E32" s="15"/>
-      <c r="F32" s="29"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="27"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="12"/>
       <c r="D33" s="14"/>
       <c r="E33" s="15"/>
-      <c r="F33" s="30"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="28"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="12"/>
       <c r="D34" s="14"/>
       <c r="E34" s="15"/>
-      <c r="F34" s="30"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="28"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="12"/>
       <c r="D35" s="14"/>
       <c r="E35" s="15"/>
-      <c r="F35" s="30"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="28"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="12"/>
       <c r="D36" s="14"/>
       <c r="E36" s="15"/>
-      <c r="F36" s="29"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="27"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="12"/>
       <c r="D37" s="14"/>
       <c r="E37" s="15"/>
-      <c r="F37" s="30"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="28"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="12"/>
       <c r="D38" s="14"/>
       <c r="E38" s="15"/>
-      <c r="F38" s="30"/>
+      <c r="F38" s="28"/>
     </row>
   </sheetData>
   <dataValidations count="6">
@@ -1775,15 +1783,15 @@
     <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid date." sqref="D8:D38" xr:uid="{DC6A934E-DA81-4DB4-9473-620774A41257}">
       <formula1>"January, February, March,April, May, June, July, August, September, October, November, December"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid year between 2000 and 2030" sqref="C8:C38" xr:uid="{718F35D4-D766-491E-896B-6B75769B2D08}">
-      <formula1>2000</formula1>
-      <formula2>2030</formula2>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E1048576" xr:uid="{4AB81EA9-2B33-4D8E-BB81-97AFB5AAEF33}">
       <formula1>"Domestic Refrigeration, Commercial Refrigeration, Industrial Refrigeration,Residential and Commercial A/Cs "</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B1048576" xr:uid="{DAB9448B-4A45-43A3-AB99-2D85AD0BA65F}">
       <formula1>"Residential Areas,Hostels,Academic Area,Health Centre,Schools,Visitor's Hostel,Servant's Quarters,Shops/Bank/PO,Lawns and Horticulture,Dhobhighat,Others"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid year out of 2022 and 2023" sqref="C8:C1048576" xr:uid="{7237FDAE-AE7A-4C6E-B46B-05608E488C03}">
+      <formula1>2022</formula1>
+      <formula2>2023</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1795,22 +1803,22 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" customWidth="1"/>
+    <col min="5" max="5" width="24.7265625" customWidth="1"/>
+    <col min="6" max="6" width="20.7265625" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" customWidth="1"/>
+    <col min="8" max="8" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="15"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1822,7 +1830,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -1834,7 +1842,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -1846,7 +1854,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
         <v>46</v>
@@ -1858,7 +1866,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -1884,7 +1892,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
@@ -1910,7 +1918,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="12"/>
@@ -1920,7 +1928,7 @@
       <c r="G7" s="20"/>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="12"/>
@@ -1930,7 +1938,7 @@
       <c r="G8" s="20"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
@@ -1940,7 +1948,7 @@
       <c r="G9" s="20"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
@@ -1950,7 +1958,7 @@
       <c r="G10" s="20"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
@@ -1960,7 +1968,7 @@
       <c r="G11" s="20"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
@@ -1970,7 +1978,7 @@
       <c r="G12" s="20"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="12"/>
@@ -1980,7 +1988,7 @@
       <c r="G13" s="20"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="12"/>
@@ -1990,7 +1998,7 @@
       <c r="G14" s="20"/>
       <c r="H14" s="21"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="12"/>
@@ -2000,7 +2008,7 @@
       <c r="G15" s="20"/>
       <c r="H15" s="21"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="12"/>
@@ -2010,7 +2018,7 @@
       <c r="G16" s="20"/>
       <c r="H16" s="21"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="12"/>
@@ -2020,7 +2028,7 @@
       <c r="G17" s="20"/>
       <c r="H17" s="21"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="12"/>
@@ -2030,7 +2038,7 @@
       <c r="G18" s="20"/>
       <c r="H18" s="15"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="12"/>
@@ -2040,7 +2048,7 @@
       <c r="G19" s="20"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="12"/>
@@ -2050,7 +2058,7 @@
       <c r="G20" s="20"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="12"/>
@@ -2060,7 +2068,7 @@
       <c r="G21" s="20"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="12"/>
@@ -2070,7 +2078,7 @@
       <c r="G22" s="20"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="12"/>
@@ -2080,7 +2088,7 @@
       <c r="G23" s="20"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="12"/>
@@ -2090,7 +2098,7 @@
       <c r="G24" s="20"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="12"/>
@@ -2100,7 +2108,7 @@
       <c r="G25" s="20"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="12"/>
@@ -2110,7 +2118,7 @@
       <c r="G26" s="20"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="12"/>
@@ -2120,7 +2128,7 @@
       <c r="G27" s="20"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="12"/>
@@ -2130,7 +2138,7 @@
       <c r="G28" s="20"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="12"/>
@@ -2140,7 +2148,7 @@
       <c r="G29" s="20"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="12"/>
@@ -2150,7 +2158,7 @@
       <c r="G30" s="20"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="12"/>
@@ -2160,7 +2168,7 @@
       <c r="G31" s="20"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="12"/>
@@ -2170,7 +2178,7 @@
       <c r="G32" s="20"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="12"/>
@@ -2180,7 +2188,7 @@
       <c r="G33" s="20"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="12"/>
@@ -2190,7 +2198,7 @@
       <c r="G34" s="20"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="12"/>
@@ -2200,7 +2208,7 @@
       <c r="G35" s="20"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="12"/>
@@ -2210,7 +2218,7 @@
       <c r="G36" s="20"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="12"/>
@@ -2237,15 +2245,15 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G37" xr:uid="{FE58FF62-EEEF-435B-907E-3EDD71CE9653}">
       <formula1>"kWH"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid year between 2000 and 2030" sqref="C7:C37" xr:uid="{C30D3FD5-62C1-463E-9ED1-6DE284634F7B}">
-      <formula1>2000</formula1>
-      <formula2>2030</formula2>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E1048576" xr:uid="{A6FF9E8A-F32E-472C-A17B-C2884C6DF5BE}">
       <formula1>"Coal/Thermal,Solar"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B1048576" xr:uid="{037CEF17-B2DE-44DB-8612-847F740F0867}">
       <formula1>"Residential Areas,Hostels,Academic Area,Health Centre,Schools,Visitor's Hostel,Servant's Quarters,Shops/Bank/PO,Lawns and Horticulture,Dhobhighat,Others"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid year out of 2022 or 2023" sqref="C7:C1048576" xr:uid="{E98AE175-5413-4902-9E33-7FE824000D7E}">
+      <formula1>2022</formula1>
+      <formula2>2023</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2257,21 +2265,21 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
-    <col min="8" max="8" width="44.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" customWidth="1"/>
+    <col min="4" max="4" width="26.26953125" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" customWidth="1"/>
+    <col min="6" max="6" width="28.7265625" customWidth="1"/>
+    <col min="7" max="7" width="24.26953125" customWidth="1"/>
+    <col min="8" max="8" width="44.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2283,7 +2291,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -2295,7 +2303,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -2307,7 +2315,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -2319,7 +2327,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>46</v>
@@ -2331,7 +2339,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -2357,7 +2365,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -2383,313 +2391,313 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="12"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="25"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="20"/>
-      <c r="H8" s="26"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
       <c r="D9" s="14"/>
       <c r="E9" s="15"/>
-      <c r="F9" s="27"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
       <c r="D10" s="14"/>
       <c r="E10" s="15"/>
-      <c r="F10" s="27"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
       <c r="D11" s="14"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="27"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="18"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
       <c r="D12" s="14"/>
       <c r="E12" s="15"/>
-      <c r="F12" s="25"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="20"/>
-      <c r="H12" s="26"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="12"/>
       <c r="D13" s="14"/>
       <c r="E13" s="15"/>
-      <c r="F13" s="27"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="12"/>
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
-      <c r="F14" s="27"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="12"/>
       <c r="D15" s="14"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="27"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="12"/>
       <c r="D16" s="14"/>
       <c r="E16" s="15"/>
-      <c r="F16" s="25"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="20"/>
-      <c r="H16" s="26"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="12"/>
       <c r="D17" s="14"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="27"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="12"/>
       <c r="D18" s="14"/>
       <c r="E18" s="15"/>
-      <c r="F18" s="27"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="12"/>
       <c r="D19" s="14"/>
       <c r="E19" s="15"/>
-      <c r="F19" s="27"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="18"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="12"/>
       <c r="D20" s="14"/>
       <c r="E20" s="15"/>
-      <c r="F20" s="25"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="20"/>
-      <c r="H20" s="26"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="25"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="12"/>
       <c r="D21" s="14"/>
       <c r="E21" s="15"/>
-      <c r="F21" s="27"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="12"/>
       <c r="D22" s="14"/>
       <c r="E22" s="15"/>
-      <c r="F22" s="27"/>
+      <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="18"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="12"/>
       <c r="D23" s="14"/>
       <c r="E23" s="15"/>
-      <c r="F23" s="27"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="18"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="12"/>
       <c r="D24" s="14"/>
       <c r="E24" s="15"/>
-      <c r="F24" s="25"/>
+      <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="12"/>
       <c r="D25" s="14"/>
       <c r="E25" s="15"/>
-      <c r="F25" s="27"/>
+      <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="18"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="12"/>
       <c r="D26" s="14"/>
       <c r="E26" s="15"/>
-      <c r="F26" s="27"/>
+      <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="18"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="28"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="15"/>
-      <c r="F27" s="27"/>
+      <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="18"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="12"/>
       <c r="D28" s="14"/>
       <c r="E28" s="15"/>
-      <c r="F28" s="25"/>
+      <c r="F28" s="20"/>
       <c r="G28" s="20"/>
       <c r="H28" s="18"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="12"/>
       <c r="D29" s="14"/>
       <c r="E29" s="15"/>
-      <c r="F29" s="27"/>
+      <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="12"/>
       <c r="D30" s="14"/>
       <c r="E30" s="15"/>
-      <c r="F30" s="27"/>
+      <c r="F30" s="15"/>
       <c r="G30" s="15"/>
       <c r="H30" s="18"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="28"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="15"/>
-      <c r="F31" s="27"/>
+      <c r="F31" s="15"/>
       <c r="G31" s="15"/>
       <c r="H31" s="18"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="12"/>
       <c r="D32" s="14"/>
       <c r="E32" s="15"/>
-      <c r="F32" s="25"/>
+      <c r="F32" s="20"/>
       <c r="G32" s="20"/>
       <c r="H32" s="18"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="12"/>
       <c r="D33" s="14"/>
       <c r="E33" s="15"/>
-      <c r="F33" s="27"/>
+      <c r="F33" s="15"/>
       <c r="G33" s="15"/>
       <c r="H33" s="18"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="12"/>
       <c r="D34" s="14"/>
       <c r="E34" s="15"/>
-      <c r="F34" s="27"/>
+      <c r="F34" s="15"/>
       <c r="G34" s="15"/>
       <c r="H34" s="18"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="12"/>
       <c r="D35" s="14"/>
       <c r="E35" s="15"/>
-      <c r="F35" s="27"/>
+      <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="18"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="12"/>
       <c r="D36" s="14"/>
       <c r="E36" s="15"/>
-      <c r="F36" s="25"/>
+      <c r="F36" s="20"/>
       <c r="G36" s="20"/>
       <c r="H36" s="18"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="12"/>
       <c r="D37" s="14"/>
       <c r="E37" s="15"/>
-      <c r="F37" s="27"/>
+      <c r="F37" s="15"/>
       <c r="G37" s="15"/>
       <c r="H37" s="18"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="12"/>
       <c r="D38" s="14"/>
       <c r="E38" s="15"/>
-      <c r="F38" s="27"/>
+      <c r="F38" s="15"/>
       <c r="G38" s="15"/>
       <c r="H38" s="18"/>
     </row>
@@ -2704,10 +2712,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E38" xr:uid="{442804D8-B7C0-4949-A703-7038B508AD4B}">
       <formula1>"Supplied Water, Treated Water"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid year between 2000 and 2030" sqref="C8:C38" xr:uid="{E169CEF1-BB29-4723-AF5F-4C99C0DAAF37}">
-      <formula1>2000</formula1>
-      <formula2>2030</formula2>
-    </dataValidation>
     <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid date." sqref="D8:D38" xr:uid="{4D42A907-1FCC-4BC4-8C85-0C5DFE1C5998}">
       <formula1>"January, February, March,April, May, June, July, August, September, October, November, December"</formula1>
     </dataValidation>
@@ -2716,6 +2720,10 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B1048576" xr:uid="{23A13DAB-0390-4DFF-A73D-37F9FD445C87}">
       <formula1>"Residential Areas,Hostels,Academic Area,Health Centre,Schools,Visitor's Hostel,Servant's Quarters,Shops/Bank/PO,Lawns and Horticulture,Dhobhighat,Others"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid year out of 2022 and 2023" sqref="C8:C1048576" xr:uid="{8ED17FB0-9242-4347-8030-0367CC15F223}">
+      <formula1>2022</formula1>
+      <formula2>2023</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2727,21 +2735,21 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView zoomScale="96" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" customWidth="1"/>
+    <col min="4" max="4" width="26.26953125" customWidth="1"/>
+    <col min="5" max="5" width="37.1796875" customWidth="1"/>
+    <col min="6" max="6" width="25.7265625" customWidth="1"/>
+    <col min="7" max="7" width="24.26953125" customWidth="1"/>
+    <col min="8" max="8" width="27.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2753,7 +2761,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -2765,7 +2773,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -2777,7 +2785,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -2789,7 +2797,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>46</v>
@@ -2801,7 +2809,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -2827,7 +2835,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -2853,313 +2861,313 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="12"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="29"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="20"/>
-      <c r="H8" s="26"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
       <c r="D9" s="14"/>
       <c r="E9" s="15"/>
-      <c r="F9" s="30"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="15"/>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
       <c r="D10" s="14"/>
       <c r="E10" s="15"/>
-      <c r="F10" s="30"/>
+      <c r="F10" s="28"/>
       <c r="G10" s="15"/>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
       <c r="D11" s="14"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="30"/>
+      <c r="F11" s="28"/>
       <c r="G11" s="15"/>
       <c r="H11" s="18"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
       <c r="D12" s="14"/>
       <c r="E12" s="15"/>
-      <c r="F12" s="29"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="20"/>
-      <c r="H12" s="26"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="12"/>
       <c r="D13" s="14"/>
       <c r="E13" s="15"/>
-      <c r="F13" s="30"/>
+      <c r="F13" s="28"/>
       <c r="G13" s="15"/>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="12"/>
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
-      <c r="F14" s="30"/>
+      <c r="F14" s="28"/>
       <c r="G14" s="15"/>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="12"/>
       <c r="D15" s="14"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="30"/>
+      <c r="F15" s="28"/>
       <c r="G15" s="15"/>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="12"/>
       <c r="D16" s="14"/>
       <c r="E16" s="15"/>
-      <c r="F16" s="29"/>
+      <c r="F16" s="27"/>
       <c r="G16" s="20"/>
-      <c r="H16" s="26"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="12"/>
       <c r="D17" s="14"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="30"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="15"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="12"/>
       <c r="D18" s="14"/>
       <c r="E18" s="15"/>
-      <c r="F18" s="30"/>
+      <c r="F18" s="28"/>
       <c r="G18" s="15"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="12"/>
       <c r="D19" s="14"/>
       <c r="E19" s="15"/>
-      <c r="F19" s="30"/>
+      <c r="F19" s="28"/>
       <c r="G19" s="15"/>
       <c r="H19" s="18"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="12"/>
       <c r="D20" s="14"/>
       <c r="E20" s="15"/>
-      <c r="F20" s="29"/>
+      <c r="F20" s="27"/>
       <c r="G20" s="20"/>
-      <c r="H20" s="26"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="25"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="12"/>
       <c r="D21" s="14"/>
       <c r="E21" s="15"/>
-      <c r="F21" s="30"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="15"/>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="12"/>
       <c r="D22" s="14"/>
       <c r="E22" s="15"/>
-      <c r="F22" s="30"/>
+      <c r="F22" s="28"/>
       <c r="G22" s="15"/>
       <c r="H22" s="18"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="12"/>
       <c r="D23" s="14"/>
       <c r="E23" s="15"/>
-      <c r="F23" s="30"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="15"/>
       <c r="H23" s="18"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="12"/>
       <c r="D24" s="14"/>
       <c r="E24" s="15"/>
-      <c r="F24" s="29"/>
+      <c r="F24" s="27"/>
       <c r="G24" s="20"/>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="12"/>
       <c r="D25" s="14"/>
       <c r="E25" s="15"/>
-      <c r="F25" s="30"/>
+      <c r="F25" s="28"/>
       <c r="G25" s="15"/>
       <c r="H25" s="18"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="12"/>
       <c r="D26" s="14"/>
       <c r="E26" s="15"/>
-      <c r="F26" s="30"/>
+      <c r="F26" s="28"/>
       <c r="G26" s="15"/>
       <c r="H26" s="18"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="28"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="15"/>
-      <c r="F27" s="30"/>
+      <c r="F27" s="28"/>
       <c r="G27" s="15"/>
       <c r="H27" s="18"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="12"/>
       <c r="D28" s="14"/>
       <c r="E28" s="15"/>
-      <c r="F28" s="29"/>
+      <c r="F28" s="27"/>
       <c r="G28" s="20"/>
       <c r="H28" s="18"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="12"/>
       <c r="D29" s="14"/>
       <c r="E29" s="15"/>
-      <c r="F29" s="30"/>
+      <c r="F29" s="28"/>
       <c r="G29" s="15"/>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="12"/>
       <c r="D30" s="14"/>
       <c r="E30" s="15"/>
-      <c r="F30" s="30"/>
+      <c r="F30" s="28"/>
       <c r="G30" s="15"/>
       <c r="H30" s="18"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="28"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="15"/>
-      <c r="F31" s="30"/>
+      <c r="F31" s="28"/>
       <c r="G31" s="15"/>
       <c r="H31" s="18"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="12"/>
       <c r="D32" s="14"/>
       <c r="E32" s="15"/>
-      <c r="F32" s="29"/>
+      <c r="F32" s="27"/>
       <c r="G32" s="20"/>
       <c r="H32" s="18"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="12"/>
       <c r="D33" s="14"/>
       <c r="E33" s="15"/>
-      <c r="F33" s="30"/>
+      <c r="F33" s="28"/>
       <c r="G33" s="15"/>
       <c r="H33" s="18"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="12"/>
       <c r="D34" s="14"/>
       <c r="E34" s="15"/>
-      <c r="F34" s="30"/>
+      <c r="F34" s="28"/>
       <c r="G34" s="15"/>
       <c r="H34" s="18"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="12"/>
       <c r="D35" s="14"/>
       <c r="E35" s="15"/>
-      <c r="F35" s="30"/>
+      <c r="F35" s="28"/>
       <c r="G35" s="15"/>
       <c r="H35" s="18"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="12"/>
       <c r="D36" s="14"/>
       <c r="E36" s="15"/>
-      <c r="F36" s="29"/>
+      <c r="F36" s="27"/>
       <c r="G36" s="20"/>
       <c r="H36" s="18"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="12"/>
       <c r="D37" s="14"/>
       <c r="E37" s="15"/>
-      <c r="F37" s="30"/>
+      <c r="F37" s="28"/>
       <c r="G37" s="15"/>
       <c r="H37" s="18"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="12"/>
       <c r="D38" s="14"/>
       <c r="E38" s="15"/>
-      <c r="F38" s="30"/>
+      <c r="F38" s="28"/>
       <c r="G38" s="15"/>
       <c r="H38" s="18"/>
     </row>
@@ -3171,10 +3179,6 @@
     <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid date." sqref="D8:D38" xr:uid="{B2E356FF-EF13-4819-8AD6-36205F00795B}">
       <formula1>"January, February, March,April, May, June, July, August, September, October, November, December"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid year between 2000 and 2030" sqref="C8:C38" xr:uid="{6047C4A3-022D-45F3-9024-107B45070419}">
-      <formula1>2000</formula1>
-      <formula2>2030</formula2>
-    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Entered value should be a positive number." sqref="H8:H38" xr:uid="{7A03D7B2-1D5C-4D29-AD19-AD8FC0E50F86}">
       <formula1>ISNUMBER(H8)</formula1>
     </dataValidation>
@@ -3189,6 +3193,10 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B1048576" xr:uid="{8A09CFD9-1F2D-4E53-8BE5-A9C3A718528D}">
       <formula1>"Residential Areas,Hostels,Academic Area,Health Centre,Schools,Visitor's Hostel,Servant's Quarters,Shops/Bank/PO,Lawns and Horticulture,Dhobhighat,Others"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid year out of 2022 and 2023" sqref="C8:C1048576" xr:uid="{9869B6C2-0F9E-49BF-ADB7-443DB5FB8821}">
+      <formula1>2022</formula1>
+      <formula2>2023</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3200,21 +3208,21 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView zoomScale="69" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="7" width="30.85546875" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" customWidth="1"/>
-    <col min="10" max="11" width="44.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" customWidth="1"/>
+    <col min="4" max="4" width="26.26953125" customWidth="1"/>
+    <col min="5" max="7" width="30.81640625" customWidth="1"/>
+    <col min="8" max="8" width="25.7265625" customWidth="1"/>
+    <col min="9" max="9" width="24.26953125" customWidth="1"/>
+    <col min="10" max="11" width="44.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3229,7 +3237,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -3244,7 +3252,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -3259,7 +3267,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -3274,7 +3282,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>46</v>
@@ -3289,7 +3297,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -3324,7 +3332,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -3359,7 +3367,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="12"/>
@@ -3367,25 +3375,25 @@
       <c r="E8" s="15"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="29"/>
+      <c r="H8" s="27"/>
       <c r="I8" s="20"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
       <c r="D9" s="14"/>
       <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
@@ -3393,12 +3401,12 @@
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="30"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="15"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
@@ -3406,12 +3414,12 @@
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="30"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="15"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
@@ -3419,12 +3427,12 @@
       <c r="E12" s="15"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="29"/>
+      <c r="H12" s="27"/>
       <c r="I12" s="20"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="12"/>
@@ -3432,12 +3440,12 @@
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="30"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="15"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="12"/>
@@ -3445,12 +3453,12 @@
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
-      <c r="H14" s="30"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="15"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="12"/>
@@ -3458,12 +3466,12 @@
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
-      <c r="H15" s="30"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="15"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="12"/>
@@ -3471,12 +3479,12 @@
       <c r="E16" s="15"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="29"/>
+      <c r="H16" s="27"/>
       <c r="I16" s="20"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="12"/>
@@ -3484,12 +3492,12 @@
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="30"/>
+      <c r="H17" s="28"/>
       <c r="I17" s="15"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="12"/>
@@ -3497,12 +3505,12 @@
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
-      <c r="H18" s="30"/>
+      <c r="H18" s="28"/>
       <c r="I18" s="15"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="12"/>
@@ -3510,12 +3518,12 @@
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
-      <c r="H19" s="30"/>
+      <c r="H19" s="28"/>
       <c r="I19" s="15"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="12"/>
@@ -3523,12 +3531,12 @@
       <c r="E20" s="15"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="29"/>
+      <c r="H20" s="27"/>
       <c r="I20" s="20"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="12"/>
@@ -3536,12 +3544,12 @@
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
-      <c r="H21" s="30"/>
+      <c r="H21" s="28"/>
       <c r="I21" s="15"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="12"/>
@@ -3549,12 +3557,12 @@
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
-      <c r="H22" s="30"/>
+      <c r="H22" s="28"/>
       <c r="I22" s="15"/>
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="12"/>
@@ -3562,12 +3570,12 @@
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
-      <c r="H23" s="30"/>
+      <c r="H23" s="28"/>
       <c r="I23" s="15"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="12"/>
@@ -3575,12 +3583,12 @@
       <c r="E24" s="15"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="29"/>
+      <c r="H24" s="27"/>
       <c r="I24" s="20"/>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="12"/>
@@ -3588,12 +3596,12 @@
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
-      <c r="H25" s="30"/>
+      <c r="H25" s="28"/>
       <c r="I25" s="15"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="12"/>
@@ -3601,25 +3609,25 @@
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
-      <c r="H26" s="30"/>
+      <c r="H26" s="28"/>
       <c r="I26" s="15"/>
       <c r="J26" s="18"/>
       <c r="K26" s="18"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="28"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
-      <c r="H27" s="30"/>
+      <c r="H27" s="28"/>
       <c r="I27" s="15"/>
       <c r="J27" s="18"/>
       <c r="K27" s="18"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="12"/>
@@ -3627,12 +3635,12 @@
       <c r="E28" s="15"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="29"/>
+      <c r="H28" s="27"/>
       <c r="I28" s="20"/>
       <c r="J28" s="18"/>
       <c r="K28" s="18"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="12"/>
@@ -3640,12 +3648,12 @@
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
-      <c r="H29" s="30"/>
+      <c r="H29" s="28"/>
       <c r="I29" s="15"/>
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="12"/>
@@ -3653,25 +3661,25 @@
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
-      <c r="H30" s="30"/>
+      <c r="H30" s="28"/>
       <c r="I30" s="15"/>
       <c r="J30" s="18"/>
       <c r="K30" s="18"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="28"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
-      <c r="H31" s="30"/>
+      <c r="H31" s="28"/>
       <c r="I31" s="15"/>
       <c r="J31" s="18"/>
       <c r="K31" s="18"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="12"/>
@@ -3679,12 +3687,12 @@
       <c r="E32" s="15"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="29"/>
+      <c r="H32" s="27"/>
       <c r="I32" s="20"/>
       <c r="J32" s="18"/>
       <c r="K32" s="18"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="12"/>
@@ -3692,12 +3700,12 @@
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
-      <c r="H33" s="30"/>
+      <c r="H33" s="28"/>
       <c r="I33" s="15"/>
       <c r="J33" s="18"/>
       <c r="K33" s="18"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="12"/>
@@ -3705,12 +3713,12 @@
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
-      <c r="H34" s="30"/>
+      <c r="H34" s="28"/>
       <c r="I34" s="15"/>
       <c r="J34" s="18"/>
       <c r="K34" s="18"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="12"/>
@@ -3718,12 +3726,12 @@
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
-      <c r="H35" s="30"/>
+      <c r="H35" s="28"/>
       <c r="I35" s="15"/>
       <c r="J35" s="18"/>
       <c r="K35" s="18"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="12"/>
@@ -3731,12 +3739,12 @@
       <c r="E36" s="15"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
-      <c r="H36" s="29"/>
+      <c r="H36" s="27"/>
       <c r="I36" s="20"/>
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="12"/>
@@ -3744,12 +3752,12 @@
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
-      <c r="H37" s="30"/>
+      <c r="H37" s="28"/>
       <c r="I37" s="15"/>
       <c r="J37" s="18"/>
       <c r="K37" s="18"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="12"/>
@@ -3757,34 +3765,34 @@
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
-      <c r="H38" s="30"/>
+      <c r="H38" s="28"/>
       <c r="I38" s="15"/>
       <c r="J38" s="18"/>
       <c r="K38" s="18"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F8:F1048576">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>(OR(E8="Airways",E8="Roadways"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G1048576">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>OR(E8="Roadways",E8="Railways")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H1048576">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>OR(E8="Airways", E8="Railways")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:I1048576">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>OR(E8="Airways", E8="Railways")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J1048576">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>OR(E8="Airways",E8="Railways",H8="Public")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3792,9 +3800,9 @@
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Entered value should be a positive number." sqref="K8:K38" xr:uid="{3E904A39-C901-438C-B6CC-F8D2DC192C23}">
       <formula1>ISNUMBER(K8)</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid year between 2000 and 2030" sqref="C8:C38" xr:uid="{EC0FA524-DC2C-4403-81E3-FADB3013C784}">
-      <formula1>2000</formula1>
-      <formula2>2030</formula2>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid year out of 2022 and 2023" sqref="C8:C38" xr:uid="{EC0FA524-DC2C-4403-81E3-FADB3013C784}">
+      <formula1>2022</formula1>
+      <formula2>2023</formula2>
     </dataValidation>
     <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid date." sqref="D8:D38" xr:uid="{217B3936-53FA-4299-AAEF-4E3D5ECBD70D}">
       <formula1>"January, February, March,April, May, June, July, August, September, October, November, December"</formula1>
@@ -3832,22 +3840,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B28777-62B5-46A5-9A2A-F1ACA479FDF1}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
-    <col min="8" max="8" width="44.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" customWidth="1"/>
+    <col min="4" max="4" width="26.26953125" customWidth="1"/>
+    <col min="5" max="5" width="37.1796875" customWidth="1"/>
+    <col min="6" max="6" width="25.7265625" customWidth="1"/>
+    <col min="7" max="7" width="24.26953125" customWidth="1"/>
+    <col min="8" max="8" width="44.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3859,7 +3867,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -3871,7 +3879,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -3883,7 +3891,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -3895,7 +3903,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>46</v>
@@ -3907,7 +3915,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -3933,7 +3941,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -3959,313 +3967,313 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="12"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="29"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="20"/>
-      <c r="H8" s="26"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
       <c r="D9" s="14"/>
       <c r="E9" s="15"/>
-      <c r="F9" s="30"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="15"/>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
       <c r="D10" s="14"/>
       <c r="E10" s="15"/>
-      <c r="F10" s="30"/>
+      <c r="F10" s="28"/>
       <c r="G10" s="15"/>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
       <c r="D11" s="14"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="30"/>
+      <c r="F11" s="28"/>
       <c r="G11" s="15"/>
       <c r="H11" s="18"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
       <c r="D12" s="14"/>
       <c r="E12" s="15"/>
-      <c r="F12" s="29"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="20"/>
-      <c r="H12" s="26"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="12"/>
       <c r="D13" s="14"/>
       <c r="E13" s="15"/>
-      <c r="F13" s="30"/>
+      <c r="F13" s="28"/>
       <c r="G13" s="15"/>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="12"/>
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
-      <c r="F14" s="30"/>
+      <c r="F14" s="28"/>
       <c r="G14" s="15"/>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="12"/>
       <c r="D15" s="14"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="30"/>
+      <c r="F15" s="28"/>
       <c r="G15" s="15"/>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="12"/>
       <c r="D16" s="14"/>
       <c r="E16" s="15"/>
-      <c r="F16" s="29"/>
+      <c r="F16" s="27"/>
       <c r="G16" s="20"/>
-      <c r="H16" s="26"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="12"/>
       <c r="D17" s="14"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="30"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="15"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="12"/>
       <c r="D18" s="14"/>
       <c r="E18" s="15"/>
-      <c r="F18" s="30"/>
+      <c r="F18" s="28"/>
       <c r="G18" s="15"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="12"/>
       <c r="D19" s="14"/>
       <c r="E19" s="15"/>
-      <c r="F19" s="30"/>
+      <c r="F19" s="28"/>
       <c r="G19" s="15"/>
       <c r="H19" s="18"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="12"/>
       <c r="D20" s="14"/>
       <c r="E20" s="15"/>
-      <c r="F20" s="29"/>
+      <c r="F20" s="27"/>
       <c r="G20" s="20"/>
-      <c r="H20" s="26"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="25"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="12"/>
       <c r="D21" s="14"/>
       <c r="E21" s="15"/>
-      <c r="F21" s="30"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="15"/>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="12"/>
       <c r="D22" s="14"/>
       <c r="E22" s="15"/>
-      <c r="F22" s="30"/>
+      <c r="F22" s="28"/>
       <c r="G22" s="15"/>
       <c r="H22" s="18"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="12"/>
       <c r="D23" s="14"/>
       <c r="E23" s="15"/>
-      <c r="F23" s="30"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="15"/>
       <c r="H23" s="18"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="12"/>
       <c r="D24" s="14"/>
       <c r="E24" s="15"/>
-      <c r="F24" s="29"/>
+      <c r="F24" s="27"/>
       <c r="G24" s="20"/>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="12"/>
       <c r="D25" s="14"/>
       <c r="E25" s="15"/>
-      <c r="F25" s="30"/>
+      <c r="F25" s="28"/>
       <c r="G25" s="15"/>
       <c r="H25" s="18"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="12"/>
       <c r="D26" s="14"/>
       <c r="E26" s="15"/>
-      <c r="F26" s="30"/>
+      <c r="F26" s="28"/>
       <c r="G26" s="15"/>
       <c r="H26" s="18"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="28"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="15"/>
-      <c r="F27" s="30"/>
+      <c r="F27" s="28"/>
       <c r="G27" s="15"/>
       <c r="H27" s="18"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="12"/>
       <c r="D28" s="14"/>
       <c r="E28" s="15"/>
-      <c r="F28" s="29"/>
+      <c r="F28" s="27"/>
       <c r="G28" s="20"/>
       <c r="H28" s="18"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="12"/>
       <c r="D29" s="14"/>
       <c r="E29" s="15"/>
-      <c r="F29" s="30"/>
+      <c r="F29" s="28"/>
       <c r="G29" s="15"/>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="12"/>
       <c r="D30" s="14"/>
       <c r="E30" s="15"/>
-      <c r="F30" s="30"/>
+      <c r="F30" s="28"/>
       <c r="G30" s="15"/>
       <c r="H30" s="18"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="28"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="15"/>
-      <c r="F31" s="30"/>
+      <c r="F31" s="28"/>
       <c r="G31" s="15"/>
       <c r="H31" s="18"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="12"/>
       <c r="D32" s="14"/>
       <c r="E32" s="15"/>
-      <c r="F32" s="29"/>
+      <c r="F32" s="27"/>
       <c r="G32" s="20"/>
       <c r="H32" s="18"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="12"/>
       <c r="D33" s="14"/>
       <c r="E33" s="15"/>
-      <c r="F33" s="30"/>
+      <c r="F33" s="28"/>
       <c r="G33" s="15"/>
       <c r="H33" s="18"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="12"/>
       <c r="D34" s="14"/>
       <c r="E34" s="15"/>
-      <c r="F34" s="30"/>
+      <c r="F34" s="28"/>
       <c r="G34" s="15"/>
       <c r="H34" s="18"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="12"/>
       <c r="D35" s="14"/>
       <c r="E35" s="15"/>
-      <c r="F35" s="30"/>
+      <c r="F35" s="28"/>
       <c r="G35" s="15"/>
       <c r="H35" s="18"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="12"/>
       <c r="D36" s="14"/>
       <c r="E36" s="15"/>
-      <c r="F36" s="29"/>
+      <c r="F36" s="27"/>
       <c r="G36" s="20"/>
       <c r="H36" s="18"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="12"/>
       <c r="D37" s="14"/>
       <c r="E37" s="15"/>
-      <c r="F37" s="30"/>
+      <c r="F37" s="28"/>
       <c r="G37" s="15"/>
       <c r="H37" s="18"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="12"/>
       <c r="D38" s="14"/>
       <c r="E38" s="15"/>
-      <c r="F38" s="30"/>
+      <c r="F38" s="28"/>
       <c r="G38" s="15"/>
       <c r="H38" s="18"/>
     </row>
@@ -4274,10 +4282,6 @@
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Entered value should be a positive number." sqref="H8:H38" xr:uid="{0E64E2E5-800B-4515-AB34-DE73C8F3D38E}">
       <formula1>ISNUMBER(H8)</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid year between 2000 and 2030" sqref="C8:C38" xr:uid="{69073939-E312-4E1B-8A19-24884CFA8994}">
-      <formula1>2000</formula1>
-      <formula2>2030</formula2>
-    </dataValidation>
     <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid date." sqref="D8:D38" xr:uid="{E27E556A-16C6-4F6B-B6AA-DCB0D4895096}">
       <formula1>"January, February, March,April, May, June, July, August, September, October, November, December"</formula1>
     </dataValidation>
@@ -4289,6 +4293,10 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B1048576" xr:uid="{0767F017-2AC5-4ECB-B006-9B00DFCC3149}">
       <formula1>"Residential Areas,Hostels,Academic Area,Health Centre,Schools,Visitor's Hostel,Servant's Quarters,Shops/Bank/PO,Lawns and Horticulture,Dhobhighat,Others"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a valid year out of 2022 or 2023" sqref="C8:C1048576" xr:uid="{0E8356C5-F4BF-48C5-AAE9-CBB825B39111}">
+      <formula1>2022</formula1>
+      <formula2>2023</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4303,18 +4311,18 @@
       <selection activeCell="C14" sqref="C14:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" customWidth="1"/>
+    <col min="2" max="2" width="31.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="6" width="13.28515625" customWidth="1"/>
+    <col min="5" max="6" width="13.26953125" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -4343,7 +4351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -4372,7 +4380,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -4401,7 +4409,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -4430,7 +4438,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>38</v>
       </c>
@@ -4438,7 +4446,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -4446,7 +4454,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -4454,7 +4462,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -4462,17 +4470,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>68</v>
       </c>
@@ -4483,7 +4491,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>32</v>
       </c>
@@ -4494,7 +4502,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>63</v>
       </c>
@@ -4505,7 +4513,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>82</v>
       </c>
@@ -4516,7 +4524,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>17</v>
       </c>
